--- a/Code/Results/Cases/Case_4_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.27471437957081</v>
+        <v>17.27471437957078</v>
       </c>
       <c r="C2">
         <v>21.8252501586994</v>
       </c>
       <c r="D2">
-        <v>7.222047017648359</v>
+        <v>7.222047017648392</v>
       </c>
       <c r="E2">
-        <v>6.018673918343349</v>
+        <v>6.018673918343366</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.74416482763176</v>
+        <v>64.74416482763186</v>
       </c>
       <c r="I2">
-        <v>4.554136059610265</v>
+        <v>4.554136059610229</v>
       </c>
       <c r="J2">
         <v>18.22986638297368</v>
       </c>
       <c r="K2">
-        <v>11.4077716028486</v>
+        <v>11.40777160284857</v>
       </c>
       <c r="L2">
-        <v>14.36895380479578</v>
+        <v>14.36895380479581</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.87574739119459</v>
+        <v>15.87574739119469</v>
       </c>
       <c r="C3">
-        <v>20.27501489879902</v>
+        <v>20.27501489879901</v>
       </c>
       <c r="D3">
-        <v>6.81965852174817</v>
+        <v>6.819658521748156</v>
       </c>
       <c r="E3">
-        <v>5.909034605560432</v>
+        <v>5.909034605560418</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.80416674836052</v>
+        <v>60.80416674836086</v>
       </c>
       <c r="I3">
-        <v>4.5368239954283</v>
+        <v>4.536823995428395</v>
       </c>
       <c r="J3">
-        <v>16.8003230428299</v>
+        <v>16.80032304282988</v>
       </c>
       <c r="K3">
-        <v>10.85198941033142</v>
+        <v>10.85198941033143</v>
       </c>
       <c r="L3">
-        <v>13.50353242040482</v>
+        <v>13.50353242040481</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.99321219143971</v>
+        <v>14.9932121914397</v>
       </c>
       <c r="C4">
-        <v>19.29425893009083</v>
+        <v>19.2942589300908</v>
       </c>
       <c r="D4">
-        <v>6.570631857315866</v>
+        <v>6.570631857315893</v>
       </c>
       <c r="E4">
-        <v>5.844545565417838</v>
+        <v>5.844545565417913</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>58.31829619608979</v>
+        <v>58.31829619608971</v>
       </c>
       <c r="I4">
-        <v>4.52660894038373</v>
+        <v>4.526608940383857</v>
       </c>
       <c r="J4">
-        <v>15.89282569346282</v>
+        <v>15.89282569346284</v>
       </c>
       <c r="K4">
-        <v>10.51003734465008</v>
+        <v>10.5100373446501</v>
       </c>
       <c r="L4">
-        <v>13.08070320559708</v>
+        <v>13.08070320559709</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.62721175655331</v>
+        <v>14.62721175655327</v>
       </c>
       <c r="C5">
-        <v>18.88709079609909</v>
+        <v>18.88709079609902</v>
       </c>
       <c r="D5">
-        <v>6.468671540826677</v>
+        <v>6.468671540826707</v>
       </c>
       <c r="E5">
-        <v>5.818939873943659</v>
+        <v>5.818939873943799</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>57.28811211899211</v>
+        <v>57.2881121189917</v>
       </c>
       <c r="I5">
-        <v>4.522529161316266</v>
+        <v>4.522529161316335</v>
       </c>
       <c r="J5">
-        <v>15.51507882459998</v>
+        <v>15.51507882459996</v>
       </c>
       <c r="K5">
-        <v>10.37053061356001</v>
+        <v>10.37053061356007</v>
       </c>
       <c r="L5">
-        <v>12.91011036778064</v>
+        <v>12.91011036778068</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.5660426834583</v>
+        <v>14.56604268345827</v>
       </c>
       <c r="C6">
-        <v>18.81902303038489</v>
+        <v>18.81902303038484</v>
       </c>
       <c r="D6">
-        <v>6.451713177570848</v>
+        <v>6.451713177570892</v>
       </c>
       <c r="E6">
-        <v>5.81472778968625</v>
+        <v>5.814727789686256</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>57.11600710619057</v>
+        <v>57.11600710619059</v>
       </c>
       <c r="I6">
-        <v>4.521856163052666</v>
+        <v>4.521856163052568</v>
       </c>
       <c r="J6">
-        <v>15.45186318181329</v>
+        <v>15.45186318181326</v>
       </c>
       <c r="K6">
-        <v>10.34735739660647</v>
+        <v>10.34735739660648</v>
       </c>
       <c r="L6">
-        <v>12.88188797742115</v>
+        <v>12.88188797742118</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.98830243731045</v>
+        <v>14.98830243731053</v>
       </c>
       <c r="C7">
-        <v>19.28879832229884</v>
+        <v>19.28879832229875</v>
       </c>
       <c r="D7">
-        <v>6.569258685243025</v>
+        <v>6.569258685243126</v>
       </c>
       <c r="E7">
-        <v>5.844197554191437</v>
+        <v>5.844197554191457</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58.30447263703251</v>
+        <v>58.30447263703267</v>
       </c>
       <c r="I7">
-        <v>4.526553609100829</v>
+        <v>4.526553609100763</v>
       </c>
       <c r="J7">
-        <v>15.88776393844202</v>
+        <v>15.887763938442</v>
       </c>
       <c r="K7">
-        <v>10.50815649496872</v>
+        <v>10.50815649496879</v>
       </c>
       <c r="L7">
-        <v>13.07839555872615</v>
+        <v>13.07839555872616</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.79694765890411</v>
+        <v>16.79694765890399</v>
       </c>
       <c r="C8">
-        <v>21.29655232123266</v>
+        <v>21.29655232123261</v>
       </c>
       <c r="D8">
-        <v>7.083705767079762</v>
+        <v>7.083705767079755</v>
       </c>
       <c r="E8">
-        <v>5.980258422639844</v>
+        <v>5.980258422639779</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.39916980159087</v>
+        <v>63.39916980159073</v>
       </c>
       <c r="I8">
-        <v>4.548066892236236</v>
+        <v>4.548066892236147</v>
       </c>
       <c r="J8">
-        <v>17.74283792398126</v>
+        <v>17.74283792398113</v>
       </c>
       <c r="K8">
-        <v>11.21627907040405</v>
+        <v>11.2162790704041</v>
       </c>
       <c r="L8">
-        <v>13.99391722109487</v>
+        <v>13.99391722109481</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.18227697689346</v>
+        <v>20.18227697689357</v>
       </c>
       <c r="C9">
-        <v>25.13074741940727</v>
+        <v>25.1307474194073</v>
       </c>
       <c r="D9">
-        <v>8.078633353301941</v>
+        <v>8.078633353301965</v>
       </c>
       <c r="E9">
-        <v>6.271626309148346</v>
+        <v>6.271626309148354</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>72.89439029632697</v>
+        <v>72.89439029632764</v>
       </c>
       <c r="I9">
-        <v>4.59472025972354</v>
+        <v>4.594720259723609</v>
       </c>
       <c r="J9">
-        <v>21.16963121717844</v>
+        <v>21.16963121717854</v>
       </c>
       <c r="K9">
-        <v>12.60136913017313</v>
+        <v>12.60136913017316</v>
       </c>
       <c r="L9">
-        <v>16.62240398915175</v>
+        <v>16.62240398915176</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.61770168571914</v>
+        <v>22.61770168571917</v>
       </c>
       <c r="C10">
-        <v>27.85046836315273</v>
+        <v>27.85046836315261</v>
       </c>
       <c r="D10">
-        <v>8.807195626794488</v>
+        <v>8.807195626794567</v>
       </c>
       <c r="E10">
-        <v>6.504486605121948</v>
+        <v>6.504486605121908</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>79.64224876608129</v>
+        <v>79.64224876608151</v>
       </c>
       <c r="I10">
-        <v>4.633813611600557</v>
+        <v>4.633813611600583</v>
       </c>
       <c r="J10">
-        <v>23.60270560979374</v>
+        <v>23.60270560979372</v>
       </c>
       <c r="K10">
-        <v>13.62466934762178</v>
+        <v>13.62466934762177</v>
       </c>
       <c r="L10">
         <v>18.47476556934895</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.72894283161166</v>
+        <v>23.72894283161173</v>
       </c>
       <c r="C11">
-        <v>29.07465324434993</v>
+        <v>29.07465324434978</v>
       </c>
       <c r="D11">
-        <v>9.140762343351273</v>
+        <v>9.14076234335135</v>
       </c>
       <c r="E11">
-        <v>6.615721006298907</v>
+        <v>6.615721006298982</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>82.68823097752198</v>
+        <v>82.68823097752156</v>
       </c>
       <c r="I11">
-        <v>4.653298242884587</v>
+        <v>4.653298242884583</v>
       </c>
       <c r="J11">
-        <v>24.70456903706447</v>
+        <v>24.70456903706449</v>
       </c>
       <c r="K11">
-        <v>14.09493993398943</v>
+        <v>14.09493993398939</v>
       </c>
       <c r="L11">
-        <v>19.30995018384736</v>
+        <v>19.30995018384734</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.15187384100966</v>
+        <v>24.15187384100962</v>
       </c>
       <c r="C12">
-        <v>29.53776259214716</v>
+        <v>29.53776259214725</v>
       </c>
       <c r="D12">
-        <v>9.27239390973137</v>
+        <v>9.272393909731212</v>
       </c>
       <c r="E12">
-        <v>6.658747362983215</v>
+        <v>6.658747362983231</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>83.84131552784164</v>
+        <v>83.84131552784154</v>
       </c>
       <c r="I12">
-        <v>4.660996665686873</v>
+        <v>4.660996665687062</v>
       </c>
       <c r="J12">
-        <v>25.12260200222958</v>
+        <v>25.12260200222955</v>
       </c>
       <c r="K12">
-        <v>14.27416301555874</v>
+        <v>14.27416301555869</v>
       </c>
       <c r="L12">
-        <v>19.62620480280189</v>
+        <v>19.62620480280179</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.06066212544509</v>
+        <v>24.06066212544514</v>
       </c>
       <c r="C13">
-        <v>29.43801745973889</v>
+        <v>29.43801745973899</v>
       </c>
       <c r="D13">
-        <v>9.241112194880957</v>
+        <v>9.241112194880852</v>
       </c>
       <c r="E13">
         <v>6.649437917692779</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>83.59293569448251</v>
+        <v>83.59293569448295</v>
       </c>
       <c r="I13">
-        <v>4.659322988813608</v>
+        <v>4.659322988813601</v>
       </c>
       <c r="J13">
-        <v>25.03250807397765</v>
+        <v>25.03250807397768</v>
       </c>
       <c r="K13">
-        <v>14.23550422734749</v>
+        <v>14.23550422734748</v>
       </c>
       <c r="L13">
-        <v>19.55807419287968</v>
+        <v>19.55807419287971</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.76368386634363</v>
+        <v>23.76368386634374</v>
       </c>
       <c r="C14">
-        <v>29.11275328852535</v>
+        <v>29.11275328852564</v>
       </c>
       <c r="D14">
-        <v>9.15119218881186</v>
+        <v>9.151192188811862</v>
       </c>
       <c r="E14">
-        <v>6.619241719681453</v>
+        <v>6.619241719681517</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>82.78308244938721</v>
+        <v>82.78308244938684</v>
       </c>
       <c r="I14">
-        <v>4.653924669061326</v>
+        <v>4.653924669061388</v>
       </c>
       <c r="J14">
-        <v>24.73893516295622</v>
+        <v>24.73893516295637</v>
       </c>
       <c r="K14">
-        <v>14.1096586208249</v>
+        <v>14.10965862082494</v>
       </c>
       <c r="L14">
-        <v>19.33596176505231</v>
+        <v>19.33596176505238</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.58211001085841</v>
+        <v>23.5821100108583</v>
       </c>
       <c r="C15">
-        <v>28.91350796419896</v>
+        <v>28.91350796419877</v>
       </c>
       <c r="D15">
-        <v>9.096680000739861</v>
+        <v>9.096680000739779</v>
       </c>
       <c r="E15">
-        <v>6.600868382914933</v>
+        <v>6.600868382914935</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>82.28708274120865</v>
+        <v>82.28708274120785</v>
       </c>
       <c r="I15">
-        <v>4.650662343486262</v>
+        <v>4.650662343486207</v>
       </c>
       <c r="J15">
-        <v>24.55926635684862</v>
+        <v>24.55926635684848</v>
       </c>
       <c r="K15">
         <v>14.03273966280675</v>
       </c>
       <c r="L15">
-        <v>19.19994633731575</v>
+        <v>19.19994633731569</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.54527756079481</v>
+        <v>22.54527756079477</v>
       </c>
       <c r="C16">
-        <v>27.77031476106891</v>
+        <v>27.77031476106881</v>
       </c>
       <c r="D16">
-        <v>8.785465674176288</v>
+        <v>8.785465674176303</v>
       </c>
       <c r="E16">
-        <v>6.497335074234221</v>
+        <v>6.497335074234151</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>79.44295017856136</v>
+        <v>79.44295017856082</v>
       </c>
       <c r="I16">
-        <v>4.632580428072179</v>
+        <v>4.632580428072172</v>
       </c>
       <c r="J16">
-        <v>23.53071530169952</v>
+        <v>23.53071530169945</v>
       </c>
       <c r="K16">
-        <v>13.59406731857098</v>
+        <v>13.59406731857091</v>
       </c>
       <c r="L16">
-        <v>18.42011866697935</v>
+        <v>18.42011866697928</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,13 +985,13 @@
         <v>21.91110994194393</v>
       </c>
       <c r="C17">
-        <v>27.06655388718829</v>
+        <v>27.06655388718852</v>
       </c>
       <c r="D17">
-        <v>8.595299820264795</v>
+        <v>8.595299820264742</v>
       </c>
       <c r="E17">
-        <v>6.435267558669591</v>
+        <v>6.435267558669515</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>77.69399956196816</v>
+        <v>77.69399956196865</v>
       </c>
       <c r="I17">
-        <v>4.621970527813304</v>
+        <v>4.62197052781326</v>
       </c>
       <c r="J17">
-        <v>22.89940728927579</v>
+        <v>22.89940728927583</v>
       </c>
       <c r="K17">
-        <v>13.32645240733815</v>
+        <v>13.32645240733812</v>
       </c>
       <c r="L17">
         <v>17.94048090646746</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.54654852469141</v>
+        <v>21.5465485246916</v>
       </c>
       <c r="C18">
-        <v>26.66043932568725</v>
+        <v>26.66043932568745</v>
       </c>
       <c r="D18">
-        <v>8.486096605354073</v>
+        <v>8.486096605354099</v>
       </c>
       <c r="E18">
-        <v>6.400056779322306</v>
+        <v>6.400056779322264</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>76.68559585044046</v>
+        <v>76.68559585044176</v>
       </c>
       <c r="I18">
-        <v>4.616022511164553</v>
+        <v>4.616022511164583</v>
       </c>
       <c r="J18">
-        <v>22.5357203420323</v>
+        <v>22.53572034203243</v>
       </c>
       <c r="K18">
-        <v>13.17294039642602</v>
+        <v>13.17294039642606</v>
       </c>
       <c r="L18">
-        <v>17.66382636349525</v>
+        <v>17.66382636349537</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.42310465882744</v>
+        <v>21.42310465882745</v>
       </c>
       <c r="C19">
-        <v>26.52267052862848</v>
+        <v>26.52267052862861</v>
       </c>
       <c r="D19">
-        <v>8.449143864554216</v>
+        <v>8.449143864554225</v>
       </c>
       <c r="E19">
-        <v>6.388215315355208</v>
+        <v>6.388215315355325</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76.34366783051404</v>
+        <v>76.34366783051463</v>
       </c>
       <c r="I19">
-        <v>4.614033195990809</v>
+        <v>4.614033195990945</v>
       </c>
       <c r="J19">
-        <v>22.4124440856676</v>
+        <v>22.41244408566764</v>
       </c>
       <c r="K19">
-        <v>13.12102345296042</v>
+        <v>13.12102345296043</v>
       </c>
       <c r="L19">
-        <v>17.56999394456005</v>
+        <v>17.56999394456004</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.97858747230135</v>
+        <v>21.97858747230169</v>
       </c>
       <c r="C20">
-        <v>27.14159906520134</v>
+        <v>27.14159906520143</v>
       </c>
       <c r="D20">
-        <v>8.615523084357966</v>
+        <v>8.615523084358044</v>
       </c>
       <c r="E20">
-        <v>6.441823268809246</v>
+        <v>6.441823268809335</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>77.88041310084378</v>
+        <v>77.88041310084462</v>
       </c>
       <c r="I20">
-        <v>4.623083500149846</v>
+        <v>4.623083500149869</v>
       </c>
       <c r="J20">
-        <v>22.96666107337492</v>
+        <v>22.9666610733751</v>
       </c>
       <c r="K20">
-        <v>13.35489493292983</v>
+        <v>13.35489493292982</v>
       </c>
       <c r="L20">
-        <v>17.99161302411228</v>
+        <v>17.99161302411238</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.85084036929402</v>
+        <v>23.85084036929403</v>
       </c>
       <c r="C21">
-        <v>29.20829057559881</v>
+        <v>29.20829057559897</v>
       </c>
       <c r="D21">
-        <v>9.177357610199767</v>
+        <v>9.177357610199815</v>
       </c>
       <c r="E21">
         <v>6.62808518608571</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>83.02093693064239</v>
+        <v>83.0209369306429</v>
       </c>
       <c r="I21">
-        <v>4.655500885709279</v>
+        <v>4.655500885709219</v>
       </c>
       <c r="J21">
-        <v>24.82512946571961</v>
+        <v>24.82512946571969</v>
       </c>
       <c r="K21">
-        <v>14.14658705489936</v>
+        <v>14.14658705489946</v>
       </c>
       <c r="L21">
-        <v>19.40119198922154</v>
+        <v>19.40119198922164</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.08800824652035</v>
+        <v>25.08800824652047</v>
       </c>
       <c r="C22">
-        <v>30.55727021544226</v>
+        <v>30.55727021544251</v>
       </c>
       <c r="D22">
-        <v>9.591855355847445</v>
+        <v>9.591855355847509</v>
       </c>
       <c r="E22">
-        <v>6.755189887220745</v>
+        <v>6.755189887220703</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>86.38060576261208</v>
+        <v>86.38060576261248</v>
       </c>
       <c r="I22">
         <v>4.678606280984344</v>
       </c>
       <c r="J22">
-        <v>26.04532490468782</v>
+        <v>26.04532490468794</v>
       </c>
       <c r="K22">
         <v>14.67100469289301</v>
       </c>
       <c r="L22">
-        <v>20.32308841227104</v>
+        <v>20.32308841227111</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.42579393518779</v>
+        <v>24.42579393518799</v>
       </c>
       <c r="C23">
-        <v>29.83687312598509</v>
+        <v>29.8368731259855</v>
       </c>
       <c r="D23">
-        <v>9.366171478515788</v>
+        <v>9.36617147851582</v>
       </c>
       <c r="E23">
-        <v>6.686801114802972</v>
+        <v>6.686801114802973</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>84.5862175686279</v>
+        <v>84.58621756862964</v>
       </c>
       <c r="I23">
-        <v>4.666067533306582</v>
+        <v>4.666067533306627</v>
       </c>
       <c r="J23">
-        <v>25.39296288373499</v>
+        <v>25.39296288373529</v>
       </c>
       <c r="K23">
-        <v>14.39027449180689</v>
+        <v>14.39027449180697</v>
       </c>
       <c r="L23">
-        <v>19.83056328565333</v>
+        <v>19.83056328565349</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.94808090503179</v>
+        <v>21.94808090503155</v>
       </c>
       <c r="C24">
-        <v>27.10767595390962</v>
+        <v>27.1076759539092</v>
       </c>
       <c r="D24">
-        <v>8.606379779130641</v>
+        <v>8.606379779130695</v>
       </c>
       <c r="E24">
-        <v>6.438857970068433</v>
+        <v>6.438857970068351</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>77.79614481612536</v>
+        <v>77.79614481612448</v>
       </c>
       <c r="I24">
-        <v>4.622579858035668</v>
+        <v>4.622579858035563</v>
       </c>
       <c r="J24">
-        <v>22.93625804804016</v>
+        <v>22.93625804803983</v>
       </c>
       <c r="K24">
-        <v>13.34203502967633</v>
+        <v>13.34203502967629</v>
       </c>
       <c r="L24">
-        <v>17.968499086824</v>
+        <v>17.96849908682384</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,10 +1289,10 @@
         <v>19.27959257794108</v>
       </c>
       <c r="C25">
-        <v>24.11009753896797</v>
+        <v>24.11009753896789</v>
       </c>
       <c r="D25">
-        <v>7.810549687323459</v>
+        <v>7.81054968732339</v>
       </c>
       <c r="E25">
         <v>6.189836425680451</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.37263041809729</v>
+        <v>70.37263041809685</v>
       </c>
       <c r="I25">
-        <v>4.581433988599335</v>
+        <v>4.581433988599218</v>
       </c>
       <c r="J25">
-        <v>20.2612038602136</v>
+        <v>20.26120386021357</v>
       </c>
       <c r="K25">
-        <v>12.22651543141242</v>
+        <v>12.22651543141241</v>
       </c>
       <c r="L25">
-        <v>15.92788982111833</v>
+        <v>15.92788982111835</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.27471437957078</v>
+        <v>17.27471437957081</v>
       </c>
       <c r="C2">
         <v>21.8252501586994</v>
       </c>
       <c r="D2">
-        <v>7.222047017648392</v>
+        <v>7.222047017648359</v>
       </c>
       <c r="E2">
-        <v>6.018673918343366</v>
+        <v>6.018673918343349</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.74416482763186</v>
+        <v>64.74416482763176</v>
       </c>
       <c r="I2">
-        <v>4.554136059610229</v>
+        <v>4.554136059610265</v>
       </c>
       <c r="J2">
         <v>18.22986638297368</v>
       </c>
       <c r="K2">
-        <v>11.40777160284857</v>
+        <v>11.4077716028486</v>
       </c>
       <c r="L2">
-        <v>14.36895380479581</v>
+        <v>14.36895380479578</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.87574739119469</v>
+        <v>15.87574739119459</v>
       </c>
       <c r="C3">
-        <v>20.27501489879901</v>
+        <v>20.27501489879902</v>
       </c>
       <c r="D3">
-        <v>6.819658521748156</v>
+        <v>6.81965852174817</v>
       </c>
       <c r="E3">
-        <v>5.909034605560418</v>
+        <v>5.909034605560432</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.80416674836086</v>
+        <v>60.80416674836052</v>
       </c>
       <c r="I3">
-        <v>4.536823995428395</v>
+        <v>4.5368239954283</v>
       </c>
       <c r="J3">
-        <v>16.80032304282988</v>
+        <v>16.8003230428299</v>
       </c>
       <c r="K3">
-        <v>10.85198941033143</v>
+        <v>10.85198941033142</v>
       </c>
       <c r="L3">
-        <v>13.50353242040481</v>
+        <v>13.50353242040482</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.9932121914397</v>
+        <v>14.99321219143971</v>
       </c>
       <c r="C4">
-        <v>19.2942589300908</v>
+        <v>19.29425893009083</v>
       </c>
       <c r="D4">
-        <v>6.570631857315893</v>
+        <v>6.570631857315866</v>
       </c>
       <c r="E4">
-        <v>5.844545565417913</v>
+        <v>5.844545565417838</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>58.31829619608971</v>
+        <v>58.31829619608979</v>
       </c>
       <c r="I4">
-        <v>4.526608940383857</v>
+        <v>4.52660894038373</v>
       </c>
       <c r="J4">
-        <v>15.89282569346284</v>
+        <v>15.89282569346282</v>
       </c>
       <c r="K4">
-        <v>10.5100373446501</v>
+        <v>10.51003734465008</v>
       </c>
       <c r="L4">
-        <v>13.08070320559709</v>
+        <v>13.08070320559708</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.62721175655327</v>
+        <v>14.62721175655331</v>
       </c>
       <c r="C5">
-        <v>18.88709079609902</v>
+        <v>18.88709079609909</v>
       </c>
       <c r="D5">
-        <v>6.468671540826707</v>
+        <v>6.468671540826677</v>
       </c>
       <c r="E5">
-        <v>5.818939873943799</v>
+        <v>5.818939873943659</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>57.2881121189917</v>
+        <v>57.28811211899211</v>
       </c>
       <c r="I5">
-        <v>4.522529161316335</v>
+        <v>4.522529161316266</v>
       </c>
       <c r="J5">
-        <v>15.51507882459996</v>
+        <v>15.51507882459998</v>
       </c>
       <c r="K5">
-        <v>10.37053061356007</v>
+        <v>10.37053061356001</v>
       </c>
       <c r="L5">
-        <v>12.91011036778068</v>
+        <v>12.91011036778064</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.56604268345827</v>
+        <v>14.5660426834583</v>
       </c>
       <c r="C6">
-        <v>18.81902303038484</v>
+        <v>18.81902303038489</v>
       </c>
       <c r="D6">
-        <v>6.451713177570892</v>
+        <v>6.451713177570848</v>
       </c>
       <c r="E6">
-        <v>5.814727789686256</v>
+        <v>5.81472778968625</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>57.11600710619059</v>
+        <v>57.11600710619057</v>
       </c>
       <c r="I6">
-        <v>4.521856163052568</v>
+        <v>4.521856163052666</v>
       </c>
       <c r="J6">
-        <v>15.45186318181326</v>
+        <v>15.45186318181329</v>
       </c>
       <c r="K6">
-        <v>10.34735739660648</v>
+        <v>10.34735739660647</v>
       </c>
       <c r="L6">
-        <v>12.88188797742118</v>
+        <v>12.88188797742115</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.98830243731053</v>
+        <v>14.98830243731045</v>
       </c>
       <c r="C7">
-        <v>19.28879832229875</v>
+        <v>19.28879832229884</v>
       </c>
       <c r="D7">
-        <v>6.569258685243126</v>
+        <v>6.569258685243025</v>
       </c>
       <c r="E7">
-        <v>5.844197554191457</v>
+        <v>5.844197554191437</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58.30447263703267</v>
+        <v>58.30447263703251</v>
       </c>
       <c r="I7">
-        <v>4.526553609100763</v>
+        <v>4.526553609100829</v>
       </c>
       <c r="J7">
-        <v>15.887763938442</v>
+        <v>15.88776393844202</v>
       </c>
       <c r="K7">
-        <v>10.50815649496879</v>
+        <v>10.50815649496872</v>
       </c>
       <c r="L7">
-        <v>13.07839555872616</v>
+        <v>13.07839555872615</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.79694765890399</v>
+        <v>16.79694765890411</v>
       </c>
       <c r="C8">
-        <v>21.29655232123261</v>
+        <v>21.29655232123266</v>
       </c>
       <c r="D8">
-        <v>7.083705767079755</v>
+        <v>7.083705767079762</v>
       </c>
       <c r="E8">
-        <v>5.980258422639779</v>
+        <v>5.980258422639844</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.39916980159073</v>
+        <v>63.39916980159087</v>
       </c>
       <c r="I8">
-        <v>4.548066892236147</v>
+        <v>4.548066892236236</v>
       </c>
       <c r="J8">
-        <v>17.74283792398113</v>
+        <v>17.74283792398126</v>
       </c>
       <c r="K8">
-        <v>11.2162790704041</v>
+        <v>11.21627907040405</v>
       </c>
       <c r="L8">
-        <v>13.99391722109481</v>
+        <v>13.99391722109487</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.18227697689357</v>
+        <v>20.18227697689346</v>
       </c>
       <c r="C9">
-        <v>25.1307474194073</v>
+        <v>25.13074741940727</v>
       </c>
       <c r="D9">
-        <v>8.078633353301965</v>
+        <v>8.078633353301941</v>
       </c>
       <c r="E9">
-        <v>6.271626309148354</v>
+        <v>6.271626309148346</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>72.89439029632764</v>
+        <v>72.89439029632697</v>
       </c>
       <c r="I9">
-        <v>4.594720259723609</v>
+        <v>4.59472025972354</v>
       </c>
       <c r="J9">
-        <v>21.16963121717854</v>
+        <v>21.16963121717844</v>
       </c>
       <c r="K9">
-        <v>12.60136913017316</v>
+        <v>12.60136913017313</v>
       </c>
       <c r="L9">
-        <v>16.62240398915176</v>
+        <v>16.62240398915175</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.61770168571917</v>
+        <v>22.61770168571914</v>
       </c>
       <c r="C10">
-        <v>27.85046836315261</v>
+        <v>27.85046836315273</v>
       </c>
       <c r="D10">
-        <v>8.807195626794567</v>
+        <v>8.807195626794488</v>
       </c>
       <c r="E10">
-        <v>6.504486605121908</v>
+        <v>6.504486605121948</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>79.64224876608151</v>
+        <v>79.64224876608129</v>
       </c>
       <c r="I10">
-        <v>4.633813611600583</v>
+        <v>4.633813611600557</v>
       </c>
       <c r="J10">
-        <v>23.60270560979372</v>
+        <v>23.60270560979374</v>
       </c>
       <c r="K10">
-        <v>13.62466934762177</v>
+        <v>13.62466934762178</v>
       </c>
       <c r="L10">
         <v>18.47476556934895</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.72894283161173</v>
+        <v>23.72894283161166</v>
       </c>
       <c r="C11">
-        <v>29.07465324434978</v>
+        <v>29.07465324434993</v>
       </c>
       <c r="D11">
-        <v>9.14076234335135</v>
+        <v>9.140762343351273</v>
       </c>
       <c r="E11">
-        <v>6.615721006298982</v>
+        <v>6.615721006298907</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>82.68823097752156</v>
+        <v>82.68823097752198</v>
       </c>
       <c r="I11">
-        <v>4.653298242884583</v>
+        <v>4.653298242884587</v>
       </c>
       <c r="J11">
-        <v>24.70456903706449</v>
+        <v>24.70456903706447</v>
       </c>
       <c r="K11">
-        <v>14.09493993398939</v>
+        <v>14.09493993398943</v>
       </c>
       <c r="L11">
-        <v>19.30995018384734</v>
+        <v>19.30995018384736</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.15187384100962</v>
+        <v>24.15187384100966</v>
       </c>
       <c r="C12">
-        <v>29.53776259214725</v>
+        <v>29.53776259214716</v>
       </c>
       <c r="D12">
-        <v>9.272393909731212</v>
+        <v>9.27239390973137</v>
       </c>
       <c r="E12">
-        <v>6.658747362983231</v>
+        <v>6.658747362983215</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>83.84131552784154</v>
+        <v>83.84131552784164</v>
       </c>
       <c r="I12">
-        <v>4.660996665687062</v>
+        <v>4.660996665686873</v>
       </c>
       <c r="J12">
-        <v>25.12260200222955</v>
+        <v>25.12260200222958</v>
       </c>
       <c r="K12">
-        <v>14.27416301555869</v>
+        <v>14.27416301555874</v>
       </c>
       <c r="L12">
-        <v>19.62620480280179</v>
+        <v>19.62620480280189</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.06066212544514</v>
+        <v>24.06066212544509</v>
       </c>
       <c r="C13">
-        <v>29.43801745973899</v>
+        <v>29.43801745973889</v>
       </c>
       <c r="D13">
-        <v>9.241112194880852</v>
+        <v>9.241112194880957</v>
       </c>
       <c r="E13">
         <v>6.649437917692779</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>83.59293569448295</v>
+        <v>83.59293569448251</v>
       </c>
       <c r="I13">
-        <v>4.659322988813601</v>
+        <v>4.659322988813608</v>
       </c>
       <c r="J13">
-        <v>25.03250807397768</v>
+        <v>25.03250807397765</v>
       </c>
       <c r="K13">
-        <v>14.23550422734748</v>
+        <v>14.23550422734749</v>
       </c>
       <c r="L13">
-        <v>19.55807419287971</v>
+        <v>19.55807419287968</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.76368386634374</v>
+        <v>23.76368386634363</v>
       </c>
       <c r="C14">
-        <v>29.11275328852564</v>
+        <v>29.11275328852535</v>
       </c>
       <c r="D14">
-        <v>9.151192188811862</v>
+        <v>9.15119218881186</v>
       </c>
       <c r="E14">
-        <v>6.619241719681517</v>
+        <v>6.619241719681453</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>82.78308244938684</v>
+        <v>82.78308244938721</v>
       </c>
       <c r="I14">
-        <v>4.653924669061388</v>
+        <v>4.653924669061326</v>
       </c>
       <c r="J14">
-        <v>24.73893516295637</v>
+        <v>24.73893516295622</v>
       </c>
       <c r="K14">
-        <v>14.10965862082494</v>
+        <v>14.1096586208249</v>
       </c>
       <c r="L14">
-        <v>19.33596176505238</v>
+        <v>19.33596176505231</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.5821100108583</v>
+        <v>23.58211001085841</v>
       </c>
       <c r="C15">
-        <v>28.91350796419877</v>
+        <v>28.91350796419896</v>
       </c>
       <c r="D15">
-        <v>9.096680000739779</v>
+        <v>9.096680000739861</v>
       </c>
       <c r="E15">
-        <v>6.600868382914935</v>
+        <v>6.600868382914933</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>82.28708274120785</v>
+        <v>82.28708274120865</v>
       </c>
       <c r="I15">
-        <v>4.650662343486207</v>
+        <v>4.650662343486262</v>
       </c>
       <c r="J15">
-        <v>24.55926635684848</v>
+        <v>24.55926635684862</v>
       </c>
       <c r="K15">
         <v>14.03273966280675</v>
       </c>
       <c r="L15">
-        <v>19.19994633731569</v>
+        <v>19.19994633731575</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.54527756079477</v>
+        <v>22.54527756079481</v>
       </c>
       <c r="C16">
-        <v>27.77031476106881</v>
+        <v>27.77031476106891</v>
       </c>
       <c r="D16">
-        <v>8.785465674176303</v>
+        <v>8.785465674176288</v>
       </c>
       <c r="E16">
-        <v>6.497335074234151</v>
+        <v>6.497335074234221</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>79.44295017856082</v>
+        <v>79.44295017856136</v>
       </c>
       <c r="I16">
-        <v>4.632580428072172</v>
+        <v>4.632580428072179</v>
       </c>
       <c r="J16">
-        <v>23.53071530169945</v>
+        <v>23.53071530169952</v>
       </c>
       <c r="K16">
-        <v>13.59406731857091</v>
+        <v>13.59406731857098</v>
       </c>
       <c r="L16">
-        <v>18.42011866697928</v>
+        <v>18.42011866697935</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,13 +985,13 @@
         <v>21.91110994194393</v>
       </c>
       <c r="C17">
-        <v>27.06655388718852</v>
+        <v>27.06655388718829</v>
       </c>
       <c r="D17">
-        <v>8.595299820264742</v>
+        <v>8.595299820264795</v>
       </c>
       <c r="E17">
-        <v>6.435267558669515</v>
+        <v>6.435267558669591</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>77.69399956196865</v>
+        <v>77.69399956196816</v>
       </c>
       <c r="I17">
-        <v>4.62197052781326</v>
+        <v>4.621970527813304</v>
       </c>
       <c r="J17">
-        <v>22.89940728927583</v>
+        <v>22.89940728927579</v>
       </c>
       <c r="K17">
-        <v>13.32645240733812</v>
+        <v>13.32645240733815</v>
       </c>
       <c r="L17">
         <v>17.94048090646746</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.5465485246916</v>
+        <v>21.54654852469141</v>
       </c>
       <c r="C18">
-        <v>26.66043932568745</v>
+        <v>26.66043932568725</v>
       </c>
       <c r="D18">
-        <v>8.486096605354099</v>
+        <v>8.486096605354073</v>
       </c>
       <c r="E18">
-        <v>6.400056779322264</v>
+        <v>6.400056779322306</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>76.68559585044176</v>
+        <v>76.68559585044046</v>
       </c>
       <c r="I18">
-        <v>4.616022511164583</v>
+        <v>4.616022511164553</v>
       </c>
       <c r="J18">
-        <v>22.53572034203243</v>
+        <v>22.5357203420323</v>
       </c>
       <c r="K18">
-        <v>13.17294039642606</v>
+        <v>13.17294039642602</v>
       </c>
       <c r="L18">
-        <v>17.66382636349537</v>
+        <v>17.66382636349525</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.42310465882745</v>
+        <v>21.42310465882744</v>
       </c>
       <c r="C19">
-        <v>26.52267052862861</v>
+        <v>26.52267052862848</v>
       </c>
       <c r="D19">
-        <v>8.449143864554225</v>
+        <v>8.449143864554216</v>
       </c>
       <c r="E19">
-        <v>6.388215315355325</v>
+        <v>6.388215315355208</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76.34366783051463</v>
+        <v>76.34366783051404</v>
       </c>
       <c r="I19">
-        <v>4.614033195990945</v>
+        <v>4.614033195990809</v>
       </c>
       <c r="J19">
-        <v>22.41244408566764</v>
+        <v>22.4124440856676</v>
       </c>
       <c r="K19">
-        <v>13.12102345296043</v>
+        <v>13.12102345296042</v>
       </c>
       <c r="L19">
-        <v>17.56999394456004</v>
+        <v>17.56999394456005</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.97858747230169</v>
+        <v>21.97858747230135</v>
       </c>
       <c r="C20">
-        <v>27.14159906520143</v>
+        <v>27.14159906520134</v>
       </c>
       <c r="D20">
-        <v>8.615523084358044</v>
+        <v>8.615523084357966</v>
       </c>
       <c r="E20">
-        <v>6.441823268809335</v>
+        <v>6.441823268809246</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>77.88041310084462</v>
+        <v>77.88041310084378</v>
       </c>
       <c r="I20">
-        <v>4.623083500149869</v>
+        <v>4.623083500149846</v>
       </c>
       <c r="J20">
-        <v>22.9666610733751</v>
+        <v>22.96666107337492</v>
       </c>
       <c r="K20">
-        <v>13.35489493292982</v>
+        <v>13.35489493292983</v>
       </c>
       <c r="L20">
-        <v>17.99161302411238</v>
+        <v>17.99161302411228</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.85084036929403</v>
+        <v>23.85084036929402</v>
       </c>
       <c r="C21">
-        <v>29.20829057559897</v>
+        <v>29.20829057559881</v>
       </c>
       <c r="D21">
-        <v>9.177357610199815</v>
+        <v>9.177357610199767</v>
       </c>
       <c r="E21">
         <v>6.62808518608571</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>83.0209369306429</v>
+        <v>83.02093693064239</v>
       </c>
       <c r="I21">
-        <v>4.655500885709219</v>
+        <v>4.655500885709279</v>
       </c>
       <c r="J21">
-        <v>24.82512946571969</v>
+        <v>24.82512946571961</v>
       </c>
       <c r="K21">
-        <v>14.14658705489946</v>
+        <v>14.14658705489936</v>
       </c>
       <c r="L21">
-        <v>19.40119198922164</v>
+        <v>19.40119198922154</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.08800824652047</v>
+        <v>25.08800824652035</v>
       </c>
       <c r="C22">
-        <v>30.55727021544251</v>
+        <v>30.55727021544226</v>
       </c>
       <c r="D22">
-        <v>9.591855355847509</v>
+        <v>9.591855355847445</v>
       </c>
       <c r="E22">
-        <v>6.755189887220703</v>
+        <v>6.755189887220745</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>86.38060576261248</v>
+        <v>86.38060576261208</v>
       </c>
       <c r="I22">
         <v>4.678606280984344</v>
       </c>
       <c r="J22">
-        <v>26.04532490468794</v>
+        <v>26.04532490468782</v>
       </c>
       <c r="K22">
         <v>14.67100469289301</v>
       </c>
       <c r="L22">
-        <v>20.32308841227111</v>
+        <v>20.32308841227104</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.42579393518799</v>
+        <v>24.42579393518779</v>
       </c>
       <c r="C23">
-        <v>29.8368731259855</v>
+        <v>29.83687312598509</v>
       </c>
       <c r="D23">
-        <v>9.36617147851582</v>
+        <v>9.366171478515788</v>
       </c>
       <c r="E23">
-        <v>6.686801114802973</v>
+        <v>6.686801114802972</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>84.58621756862964</v>
+        <v>84.5862175686279</v>
       </c>
       <c r="I23">
-        <v>4.666067533306627</v>
+        <v>4.666067533306582</v>
       </c>
       <c r="J23">
-        <v>25.39296288373529</v>
+        <v>25.39296288373499</v>
       </c>
       <c r="K23">
-        <v>14.39027449180697</v>
+        <v>14.39027449180689</v>
       </c>
       <c r="L23">
-        <v>19.83056328565349</v>
+        <v>19.83056328565333</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.94808090503155</v>
+        <v>21.94808090503179</v>
       </c>
       <c r="C24">
-        <v>27.1076759539092</v>
+        <v>27.10767595390962</v>
       </c>
       <c r="D24">
-        <v>8.606379779130695</v>
+        <v>8.606379779130641</v>
       </c>
       <c r="E24">
-        <v>6.438857970068351</v>
+        <v>6.438857970068433</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>77.79614481612448</v>
+        <v>77.79614481612536</v>
       </c>
       <c r="I24">
-        <v>4.622579858035563</v>
+        <v>4.622579858035668</v>
       </c>
       <c r="J24">
-        <v>22.93625804803983</v>
+        <v>22.93625804804016</v>
       </c>
       <c r="K24">
-        <v>13.34203502967629</v>
+        <v>13.34203502967633</v>
       </c>
       <c r="L24">
-        <v>17.96849908682384</v>
+        <v>17.968499086824</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,10 +1289,10 @@
         <v>19.27959257794108</v>
       </c>
       <c r="C25">
-        <v>24.11009753896789</v>
+        <v>24.11009753896797</v>
       </c>
       <c r="D25">
-        <v>7.81054968732339</v>
+        <v>7.810549687323459</v>
       </c>
       <c r="E25">
         <v>6.189836425680451</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.37263041809685</v>
+        <v>70.37263041809729</v>
       </c>
       <c r="I25">
-        <v>4.581433988599218</v>
+        <v>4.581433988599335</v>
       </c>
       <c r="J25">
-        <v>20.26120386021357</v>
+        <v>20.2612038602136</v>
       </c>
       <c r="K25">
-        <v>12.22651543141241</v>
+        <v>12.22651543141242</v>
       </c>
       <c r="L25">
-        <v>15.92788982111835</v>
+        <v>15.92788982111833</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.27471437957081</v>
+        <v>17.14022796358065</v>
       </c>
       <c r="C2">
-        <v>21.8252501586994</v>
+        <v>21.79665779468927</v>
       </c>
       <c r="D2">
-        <v>7.222047017648359</v>
+        <v>7.203706586126189</v>
       </c>
       <c r="E2">
-        <v>6.018673918343349</v>
+        <v>5.933022162278821</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.092073183943188</v>
       </c>
       <c r="H2">
-        <v>64.74416482763176</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.554136059610265</v>
+        <v>64.83083313131262</v>
       </c>
       <c r="J2">
-        <v>18.22986638297368</v>
+        <v>4.483852301622996</v>
       </c>
       <c r="K2">
-        <v>11.4077716028486</v>
+        <v>18.09512438228999</v>
       </c>
       <c r="L2">
-        <v>14.36895380479578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>11.41327245094724</v>
+      </c>
+      <c r="M2">
+        <v>14.27963882864575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.87574739119459</v>
+        <v>15.75596141682572</v>
       </c>
       <c r="C3">
-        <v>20.27501489879902</v>
+        <v>20.26730204598968</v>
       </c>
       <c r="D3">
-        <v>6.81965852174817</v>
+        <v>6.802763167701749</v>
       </c>
       <c r="E3">
-        <v>5.909034605560432</v>
+        <v>5.820446377932846</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.110045170947091</v>
       </c>
       <c r="H3">
-        <v>60.80416674836052</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.5368239954283</v>
+        <v>60.92034524483327</v>
       </c>
       <c r="J3">
-        <v>16.8003230428299</v>
+        <v>4.466162283217566</v>
       </c>
       <c r="K3">
-        <v>10.85198941033142</v>
+        <v>16.67767152832621</v>
       </c>
       <c r="L3">
-        <v>13.50353242040482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>10.86301306254246</v>
+      </c>
+      <c r="M3">
+        <v>13.55225562272394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.99321219143971</v>
+        <v>14.88333969754243</v>
       </c>
       <c r="C4">
-        <v>19.29425893009083</v>
+        <v>19.30075221382733</v>
       </c>
       <c r="D4">
-        <v>6.570631857315866</v>
+        <v>6.554588744824954</v>
       </c>
       <c r="E4">
-        <v>5.844545565417838</v>
+        <v>5.754073249313431</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.121142861370607</v>
       </c>
       <c r="H4">
-        <v>58.31829619608979</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4.52660894038373</v>
+        <v>58.45380826253446</v>
       </c>
       <c r="J4">
-        <v>15.89282569346282</v>
+        <v>4.45570360872024</v>
       </c>
       <c r="K4">
-        <v>10.51003734465008</v>
+        <v>15.77818820972481</v>
       </c>
       <c r="L4">
-        <v>13.08070320559708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>10.52461543916735</v>
+      </c>
+      <c r="M4">
+        <v>13.13895532641032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.62721175655331</v>
+        <v>14.5216323531175</v>
       </c>
       <c r="C5">
-        <v>18.88709079609909</v>
+        <v>18.89975450373168</v>
       </c>
       <c r="D5">
-        <v>6.468671540826677</v>
+        <v>6.452968637326571</v>
       </c>
       <c r="E5">
-        <v>5.818939873943659</v>
+        <v>5.727681443379043</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.125691164156061</v>
       </c>
       <c r="H5">
-        <v>57.28811211899211</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4.522529161316266</v>
+        <v>57.43183827927484</v>
       </c>
       <c r="J5">
-        <v>15.51507882459998</v>
+        <v>4.451521799152258</v>
       </c>
       <c r="K5">
-        <v>10.37053061356001</v>
+        <v>15.40387773033303</v>
       </c>
       <c r="L5">
-        <v>12.91011036778064</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>10.38659993359381</v>
+      </c>
+      <c r="M5">
+        <v>12.97239045279979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.5660426834583</v>
+        <v>14.46119238627771</v>
       </c>
       <c r="C6">
-        <v>18.81902303038489</v>
+        <v>18.83273536573157</v>
       </c>
       <c r="D6">
-        <v>6.451713177570848</v>
+        <v>6.436066379861435</v>
       </c>
       <c r="E6">
-        <v>5.81472778968625</v>
+        <v>5.723337776989135</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.126448241454955</v>
       </c>
       <c r="H6">
-        <v>57.11600710619057</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4.521856163052666</v>
+        <v>57.26111829987918</v>
       </c>
       <c r="J6">
-        <v>15.45186318181329</v>
+        <v>4.450831696016877</v>
       </c>
       <c r="K6">
-        <v>10.34735739660647</v>
+        <v>15.34124368684101</v>
       </c>
       <c r="L6">
-        <v>12.88188797742115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>10.36367694203885</v>
+      </c>
+      <c r="M6">
+        <v>12.94484554440959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.98830243731045</v>
+        <v>14.87848677389768</v>
       </c>
       <c r="C7">
-        <v>19.28879832229884</v>
+        <v>19.29537323363276</v>
       </c>
       <c r="D7">
-        <v>6.569258685243025</v>
+        <v>6.55322018765475</v>
       </c>
       <c r="E7">
-        <v>5.844197554191437</v>
+        <v>5.753714707834159</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.121204084090929</v>
       </c>
       <c r="H7">
-        <v>58.30447263703251</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>4.526553609100829</v>
+        <v>58.44009408543771</v>
       </c>
       <c r="J7">
-        <v>15.88776393844202</v>
+        <v>4.45564691240248</v>
       </c>
       <c r="K7">
-        <v>10.50815649496872</v>
+        <v>15.77317207764896</v>
       </c>
       <c r="L7">
-        <v>13.07839555872615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>10.52275452619883</v>
+      </c>
+      <c r="M7">
+        <v>13.13670141991404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.79694765890411</v>
+        <v>16.66736306477123</v>
       </c>
       <c r="C8">
-        <v>21.29655232123266</v>
+        <v>21.27489062285654</v>
       </c>
       <c r="D8">
-        <v>7.083705767079762</v>
+        <v>7.065872056345755</v>
       </c>
       <c r="E8">
-        <v>5.980258422639844</v>
+        <v>5.893612257312652</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.098263418485804</v>
       </c>
       <c r="H8">
-        <v>63.39916980159087</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>4.548066892236236</v>
+        <v>63.49578037122535</v>
       </c>
       <c r="J8">
-        <v>17.74283792398126</v>
+        <v>4.47765532210511</v>
       </c>
       <c r="K8">
-        <v>11.21627907040405</v>
+        <v>17.61215504090102</v>
       </c>
       <c r="L8">
-        <v>13.99391722109487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>11.22365164858298</v>
+      </c>
+      <c r="M8">
+        <v>13.99964388197256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.18227697689346</v>
+        <v>20.01972231170016</v>
       </c>
       <c r="C9">
-        <v>25.13074741940727</v>
+        <v>25.02615176362375</v>
       </c>
       <c r="D9">
-        <v>8.078633353301941</v>
+        <v>8.056893409413121</v>
       </c>
       <c r="E9">
-        <v>6.271626309148346</v>
+        <v>6.191764541600127</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.053231645918643</v>
       </c>
       <c r="H9">
-        <v>72.89439029632697</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>4.59472025972354</v>
+        <v>72.92258122746344</v>
       </c>
       <c r="J9">
-        <v>21.16963121717844</v>
+        <v>4.525177401078538</v>
       </c>
       <c r="K9">
-        <v>12.60136913017313</v>
+        <v>21.01113190211154</v>
       </c>
       <c r="L9">
-        <v>16.62240398915175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>12.59572448567645</v>
+      </c>
+      <c r="M9">
+        <v>16.52167923293295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.61770168571914</v>
+        <v>22.43271870958389</v>
       </c>
       <c r="C10">
-        <v>27.85046836315273</v>
+        <v>27.72075455222867</v>
       </c>
       <c r="D10">
-        <v>8.807195626794488</v>
+        <v>8.78213353709943</v>
       </c>
       <c r="E10">
-        <v>6.504486605121948</v>
+        <v>6.429015893690414</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.019180247666531</v>
       </c>
       <c r="H10">
-        <v>79.64224876608129</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>4.633813611600557</v>
+        <v>79.62248603989497</v>
       </c>
       <c r="J10">
-        <v>23.60270560979374</v>
+        <v>4.564822588041348</v>
       </c>
       <c r="K10">
-        <v>13.62466934762178</v>
+        <v>23.42466107297097</v>
       </c>
       <c r="L10">
-        <v>18.47476556934895</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>13.60983784565463</v>
+      </c>
+      <c r="M10">
+        <v>18.36376003521006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.72894283161166</v>
+        <v>23.53369776269466</v>
       </c>
       <c r="C11">
-        <v>29.07465324434993</v>
+        <v>28.93362017731935</v>
       </c>
       <c r="D11">
-        <v>9.140762343351273</v>
+        <v>9.114013145657026</v>
       </c>
       <c r="E11">
-        <v>6.615721006298907</v>
+        <v>6.54208196957859</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.00319782710226</v>
       </c>
       <c r="H11">
-        <v>82.68823097752198</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>4.653298242884587</v>
+        <v>82.64636437579234</v>
       </c>
       <c r="J11">
-        <v>24.70456903706447</v>
+        <v>4.584529603049473</v>
       </c>
       <c r="K11">
-        <v>14.09493993398943</v>
+        <v>24.51744743988725</v>
       </c>
       <c r="L11">
-        <v>19.30995018384736</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>14.07589122056915</v>
+      </c>
+      <c r="M11">
+        <v>19.19392696317026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.15187384100966</v>
+        <v>23.95268493317505</v>
       </c>
       <c r="C12">
-        <v>29.53776259214716</v>
+        <v>29.39241190736997</v>
       </c>
       <c r="D12">
-        <v>9.27239390973137</v>
+        <v>9.244638059072667</v>
       </c>
       <c r="E12">
-        <v>6.658747362983215</v>
+        <v>6.585774151828698</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.997043465133221</v>
       </c>
       <c r="H12">
-        <v>83.84131552784164</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4.660996665686873</v>
+        <v>83.79094445818419</v>
       </c>
       <c r="J12">
-        <v>25.12260200222958</v>
+        <v>4.592306715487513</v>
       </c>
       <c r="K12">
-        <v>14.27416301555874</v>
+        <v>24.93197339638284</v>
       </c>
       <c r="L12">
-        <v>19.62620480280189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>14.25349675630996</v>
+      </c>
+      <c r="M12">
+        <v>19.50820549205415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.06066212544509</v>
+        <v>23.86232611720092</v>
       </c>
       <c r="C13">
-        <v>29.43801745973889</v>
+        <v>29.29359893336323</v>
       </c>
       <c r="D13">
-        <v>9.241112194880957</v>
+        <v>9.213512969594197</v>
       </c>
       <c r="E13">
-        <v>6.649437917692779</v>
+        <v>6.576322619562852</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.998374054324821</v>
       </c>
       <c r="H13">
-        <v>83.59293569448251</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>4.659322988813608</v>
+        <v>83.5444040020457</v>
       </c>
       <c r="J13">
-        <v>25.03250807397765</v>
+        <v>4.590616366908216</v>
       </c>
       <c r="K13">
-        <v>14.23550422734749</v>
+        <v>24.84263870666858</v>
       </c>
       <c r="L13">
-        <v>19.55807419287968</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>14.21518755435937</v>
+      </c>
+      <c r="M13">
+        <v>19.4405043903571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.76368386634363</v>
+        <v>23.56811583092638</v>
       </c>
       <c r="C14">
-        <v>29.11275328852535</v>
+        <v>28.97136595082268</v>
       </c>
       <c r="D14">
-        <v>9.15119218881186</v>
+        <v>9.124388311109703</v>
       </c>
       <c r="E14">
-        <v>6.619241719681453</v>
+        <v>6.545658044188574</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.002693762131291</v>
       </c>
       <c r="H14">
-        <v>82.78308244938721</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>4.653924669061326</v>
+        <v>82.74051951272347</v>
       </c>
       <c r="J14">
-        <v>24.73893516295622</v>
+        <v>4.585162624251274</v>
       </c>
       <c r="K14">
-        <v>14.1096586208249</v>
+        <v>24.55152673659765</v>
       </c>
       <c r="L14">
-        <v>19.33596176505231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>14.09047735053502</v>
+      </c>
+      <c r="M14">
+        <v>19.21977768462351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.58211001085841</v>
+        <v>23.38822819173508</v>
       </c>
       <c r="C15">
-        <v>28.91350796419896</v>
+        <v>28.77397163368249</v>
       </c>
       <c r="D15">
-        <v>9.096680000739861</v>
+        <v>9.07016056895454</v>
       </c>
       <c r="E15">
-        <v>6.600868382914933</v>
+        <v>6.526994058789998</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.005325326182196</v>
       </c>
       <c r="H15">
-        <v>82.28708274120865</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>4.650662343486262</v>
+        <v>82.24815508476694</v>
       </c>
       <c r="J15">
-        <v>24.55926635684862</v>
+        <v>4.581865578165911</v>
       </c>
       <c r="K15">
-        <v>14.03273966280675</v>
+        <v>24.37335473311015</v>
       </c>
       <c r="L15">
-        <v>19.19994633731575</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>14.01425063405296</v>
+      </c>
+      <c r="M15">
+        <v>19.08460018122185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.54527756079481</v>
+        <v>22.36096014967593</v>
       </c>
       <c r="C16">
-        <v>27.77031476106891</v>
+        <v>27.641339139508</v>
       </c>
       <c r="D16">
-        <v>8.785465674176288</v>
+        <v>8.760509538733988</v>
       </c>
       <c r="E16">
-        <v>6.497335074234221</v>
+        <v>6.421741006676958</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.020212333464037</v>
       </c>
       <c r="H16">
-        <v>79.44295017856136</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>4.632580428072179</v>
+        <v>79.42461891695815</v>
       </c>
       <c r="J16">
-        <v>23.53071530169952</v>
+        <v>4.563574189296321</v>
       </c>
       <c r="K16">
-        <v>13.59406731857098</v>
+        <v>23.35325685477148</v>
       </c>
       <c r="L16">
-        <v>18.42011866697935</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>13.57950948632441</v>
+      </c>
+      <c r="M16">
+        <v>18.30943210028882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.91110994194393</v>
+        <v>21.73261390713443</v>
       </c>
       <c r="C17">
-        <v>27.06655388718829</v>
+        <v>26.94405485204139</v>
       </c>
       <c r="D17">
-        <v>8.595299820264795</v>
+        <v>8.571251731084431</v>
       </c>
       <c r="E17">
-        <v>6.435267558669591</v>
+        <v>6.358573494499923</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.029199090545161</v>
       </c>
       <c r="H17">
-        <v>77.69399956196816</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>4.621970527813304</v>
+        <v>77.68817224873641</v>
       </c>
       <c r="J17">
-        <v>22.89940728927579</v>
+        <v>4.552827638114954</v>
       </c>
       <c r="K17">
-        <v>13.32645240733815</v>
+        <v>22.7270603094196</v>
       </c>
       <c r="L17">
-        <v>17.94048090646746</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>13.31428735763241</v>
+      </c>
+      <c r="M17">
+        <v>17.8325491834617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.54654852469141</v>
+        <v>21.37139877514696</v>
       </c>
       <c r="C18">
-        <v>26.66043932568725</v>
+        <v>26.54167887351321</v>
       </c>
       <c r="D18">
-        <v>8.486096605354073</v>
+        <v>8.462555015695026</v>
       </c>
       <c r="E18">
-        <v>6.400056779322306</v>
+        <v>6.322714695491409</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.034323984346796</v>
       </c>
       <c r="H18">
-        <v>76.68559585044046</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>4.616022511164553</v>
+        <v>76.68694011911991</v>
       </c>
       <c r="J18">
-        <v>22.5357203420323</v>
+        <v>4.546798439587001</v>
       </c>
       <c r="K18">
-        <v>13.17294039642602</v>
+        <v>22.36629901295108</v>
       </c>
       <c r="L18">
-        <v>17.66382636349525</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>13.16214918925947</v>
+      </c>
+      <c r="M18">
+        <v>17.55744912085847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.42310465882744</v>
+        <v>21.24908884020934</v>
       </c>
       <c r="C19">
-        <v>26.52267052862848</v>
+        <v>26.40517942969432</v>
       </c>
       <c r="D19">
-        <v>8.449143864554216</v>
+        <v>8.425771300149442</v>
       </c>
       <c r="E19">
-        <v>6.388215315355208</v>
+        <v>6.310651295067308</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.036052446854018</v>
       </c>
       <c r="H19">
-        <v>76.34366783051404</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>4.614033195990809</v>
+        <v>76.34743914082783</v>
       </c>
       <c r="J19">
-        <v>22.4124440856676</v>
+        <v>4.544781226657667</v>
       </c>
       <c r="K19">
-        <v>13.12102345296042</v>
+        <v>22.2440119761561</v>
       </c>
       <c r="L19">
-        <v>17.56999394456005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>13.11069736505356</v>
+      </c>
+      <c r="M19">
+        <v>17.46413853741975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.97858747230135</v>
+        <v>21.79947226296078</v>
       </c>
       <c r="C20">
-        <v>27.14159906520134</v>
+        <v>27.01840949568365</v>
       </c>
       <c r="D20">
-        <v>8.615523084357966</v>
+        <v>8.591380025848219</v>
       </c>
       <c r="E20">
-        <v>6.441823268809246</v>
+        <v>6.365247913276884</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.028247195443673</v>
       </c>
       <c r="H20">
-        <v>77.88041310084378</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>4.623083500149846</v>
+        <v>77.87325740577121</v>
       </c>
       <c r="J20">
-        <v>22.96666107337492</v>
+        <v>4.553955432736505</v>
       </c>
       <c r="K20">
-        <v>13.35489493292983</v>
+        <v>22.79377172199278</v>
       </c>
       <c r="L20">
-        <v>17.99161302411228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>13.34247551052171</v>
+      </c>
+      <c r="M20">
+        <v>17.88339131680676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.85084036929402</v>
+        <v>23.65446135104621</v>
       </c>
       <c r="C21">
-        <v>29.20829057559881</v>
+        <v>29.06601419231677</v>
       </c>
       <c r="D21">
-        <v>9.177357610199767</v>
+        <v>9.150416015602902</v>
       </c>
       <c r="E21">
-        <v>6.62808518608571</v>
+        <v>6.554639875343092</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.001428025021348</v>
       </c>
       <c r="H21">
-        <v>83.02093693064239</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4.655500885709279</v>
+        <v>82.97662536315138</v>
       </c>
       <c r="J21">
-        <v>24.82512946571961</v>
+        <v>4.586755284450363</v>
       </c>
       <c r="K21">
-        <v>14.14658705489936</v>
+        <v>24.63700050727093</v>
       </c>
       <c r="L21">
-        <v>19.40119198922154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>14.12707299700029</v>
+      </c>
+      <c r="M21">
+        <v>19.28460321741501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.08800824652035</v>
+        <v>24.87997367438247</v>
       </c>
       <c r="C22">
-        <v>30.55727021544226</v>
+        <v>30.4023042211634</v>
       </c>
       <c r="D22">
-        <v>9.591855355847445</v>
+        <v>9.562438561243901</v>
       </c>
       <c r="E22">
-        <v>6.755189887220745</v>
+        <v>6.683625527278106</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.983283199160186</v>
       </c>
       <c r="H22">
-        <v>86.38060576261208</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>4.678606280984344</v>
+        <v>86.31115935761055</v>
       </c>
       <c r="J22">
-        <v>26.04532490468782</v>
+        <v>4.610077225084352</v>
       </c>
       <c r="K22">
-        <v>14.67100469289301</v>
+        <v>25.84679774552331</v>
       </c>
       <c r="L22">
-        <v>20.32308841227104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>14.64672218522728</v>
+      </c>
+      <c r="M22">
+        <v>20.20056728602737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.42579393518779</v>
+        <v>24.22403497765533</v>
       </c>
       <c r="C23">
-        <v>29.83687312598509</v>
+        <v>29.68871887888049</v>
       </c>
       <c r="D23">
-        <v>9.366171478515788</v>
+        <v>9.337939841959193</v>
       </c>
       <c r="E23">
-        <v>6.686801114802972</v>
+        <v>6.614249542561152</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.993036671541607</v>
       </c>
       <c r="H23">
-        <v>84.5862175686279</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>4.666067533306582</v>
+        <v>84.53030365834115</v>
       </c>
       <c r="J23">
-        <v>25.39296288373499</v>
+        <v>4.597426625201881</v>
       </c>
       <c r="K23">
-        <v>14.39027449180689</v>
+        <v>25.20004386716615</v>
       </c>
       <c r="L23">
-        <v>19.83056328565333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>14.36855568801143</v>
+      </c>
+      <c r="M23">
+        <v>19.71126268882938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.94808090503179</v>
+        <v>21.76924562257079</v>
       </c>
       <c r="C24">
-        <v>27.10767595390962</v>
+        <v>26.9847985246077</v>
       </c>
       <c r="D24">
-        <v>8.606379779130641</v>
+        <v>8.58227970399483</v>
       </c>
       <c r="E24">
-        <v>6.438857970068433</v>
+        <v>6.362228994722805</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.02867767489714</v>
       </c>
       <c r="H24">
-        <v>77.79614481612536</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>4.622579858035668</v>
+        <v>77.78958972923665</v>
       </c>
       <c r="J24">
-        <v>22.93625804804016</v>
+        <v>4.553445097530719</v>
       </c>
       <c r="K24">
-        <v>13.34203502967633</v>
+        <v>22.76361394028412</v>
       </c>
       <c r="L24">
-        <v>17.968499086824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>13.3297306137179</v>
+      </c>
+      <c r="M24">
+        <v>17.8604085708491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.27959257794108</v>
+        <v>19.12550952589434</v>
       </c>
       <c r="C25">
-        <v>24.11009753896797</v>
+        <v>24.0151016557755</v>
       </c>
       <c r="D25">
-        <v>7.810549687323459</v>
+        <v>7.789925966776555</v>
       </c>
       <c r="E25">
-        <v>6.189836425680451</v>
+        <v>6.108232389813995</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.065504168518609</v>
       </c>
       <c r="H25">
-        <v>70.37263041809729</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>4.581433988599335</v>
+        <v>70.41870466360407</v>
       </c>
       <c r="J25">
-        <v>20.2612038602136</v>
+        <v>4.51166894112377</v>
       </c>
       <c r="K25">
-        <v>12.22651543141242</v>
+        <v>20.10996407375449</v>
       </c>
       <c r="L25">
-        <v>15.92788982111833</v>
+        <v>12.22429530061429</v>
+      </c>
+      <c r="M25">
+        <v>15.83078426062509</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.14022796358065</v>
+        <v>23.92854438002553</v>
       </c>
       <c r="C2">
-        <v>21.79665779468927</v>
+        <v>13.70461263610279</v>
       </c>
       <c r="D2">
-        <v>7.203706586126189</v>
+        <v>7.047998197682302</v>
       </c>
       <c r="E2">
-        <v>5.933022162278821</v>
+        <v>6.020318733792978</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.092073183943188</v>
+        <v>2.10831775091882</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64.83083313131262</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.483852301622996</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>18.09512438228999</v>
+        <v>19.3918609961562</v>
       </c>
       <c r="L2">
-        <v>11.41327245094724</v>
+        <v>6.181233807829589</v>
       </c>
       <c r="M2">
-        <v>14.27963882864575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14.02873692256552</v>
+      </c>
+      <c r="N2">
+        <v>16.30202875378544</v>
+      </c>
+      <c r="O2">
+        <v>33.51263099927421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.75596141682572</v>
+        <v>22.48113954606758</v>
       </c>
       <c r="C3">
-        <v>20.26730204598968</v>
+        <v>12.72672810152182</v>
       </c>
       <c r="D3">
-        <v>6.802763167701749</v>
+        <v>6.539160660760107</v>
       </c>
       <c r="E3">
-        <v>5.820446377932846</v>
+        <v>5.99301345675037</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.110045170947091</v>
+        <v>2.120563934232198</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.92034524483327</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.466162283217566</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>16.67767152832621</v>
+        <v>18.20601630591554</v>
       </c>
       <c r="L3">
-        <v>10.86301306254246</v>
+        <v>6.111740003614771</v>
       </c>
       <c r="M3">
-        <v>13.55225562272394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.48444307437337</v>
+      </c>
+      <c r="N3">
+        <v>16.39209569665156</v>
+      </c>
+      <c r="O3">
+        <v>32.36435756295392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.88333969754243</v>
+        <v>21.5678692548199</v>
       </c>
       <c r="C4">
-        <v>19.30075221382733</v>
+        <v>12.09778966228138</v>
       </c>
       <c r="D4">
-        <v>6.554588744824954</v>
+        <v>6.235467350173521</v>
       </c>
       <c r="E4">
-        <v>5.754073249313431</v>
+        <v>5.976886154102822</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.121142861370607</v>
+        <v>2.128235218022516</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>58.45380826253446</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.45570360872024</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>15.77818820972481</v>
+        <v>17.45752451280789</v>
       </c>
       <c r="L4">
-        <v>10.52461543916735</v>
+        <v>6.072400371238468</v>
       </c>
       <c r="M4">
-        <v>13.13895532641032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.15161309331396</v>
+      </c>
+      <c r="N4">
+        <v>16.45331425930628</v>
+      </c>
+      <c r="O4">
+        <v>31.67186327239083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.5216323531175</v>
+        <v>21.18976264075255</v>
       </c>
       <c r="C5">
-        <v>18.89975450373168</v>
+        <v>11.83416790841049</v>
       </c>
       <c r="D5">
-        <v>6.452968637326571</v>
+        <v>6.120575749908746</v>
       </c>
       <c r="E5">
-        <v>5.727681443379043</v>
+        <v>5.970453006588955</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.125691164156061</v>
+        <v>2.131403024494118</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>57.43183827927484</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4.451521799152258</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>15.40387773033303</v>
+        <v>17.14756446154165</v>
       </c>
       <c r="L5">
-        <v>10.38659993359381</v>
+        <v>6.057186987590029</v>
       </c>
       <c r="M5">
-        <v>12.97239045279979</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.01645194298288</v>
+      </c>
+      <c r="N5">
+        <v>16.47967586525156</v>
+      </c>
+      <c r="O5">
+        <v>31.39292829423893</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.46119238627771</v>
+        <v>21.12662816911127</v>
       </c>
       <c r="C6">
-        <v>18.83273536573157</v>
+        <v>11.78994707278998</v>
       </c>
       <c r="D6">
-        <v>6.436066379861435</v>
+        <v>6.101381182497974</v>
       </c>
       <c r="E6">
-        <v>5.723337776989135</v>
+        <v>5.969392584035486</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.126448241454955</v>
+        <v>2.13193165013876</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>57.26111829987918</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.450831696016877</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>15.34124368684101</v>
+        <v>17.09580406896358</v>
       </c>
       <c r="L6">
-        <v>10.36367694203885</v>
+        <v>6.054709647110411</v>
       </c>
       <c r="M6">
-        <v>12.94484554440959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.99404098056846</v>
+      </c>
+      <c r="N6">
+        <v>16.48413661715366</v>
+      </c>
+      <c r="O6">
+        <v>31.34681201248881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.87848677389768</v>
+        <v>21.5627936552155</v>
       </c>
       <c r="C7">
-        <v>19.29537323363276</v>
+        <v>12.09426421796451</v>
       </c>
       <c r="D7">
-        <v>6.55322018765475</v>
+        <v>6.23392576917198</v>
       </c>
       <c r="E7">
-        <v>5.753714707834159</v>
+        <v>5.976798859149084</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.121204084090929</v>
+        <v>2.128277766987316</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>58.44009408543771</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4.45564691240248</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>15.77317207764896</v>
+        <v>17.45336400325691</v>
       </c>
       <c r="L7">
-        <v>10.52275452619883</v>
+        <v>6.072191912368514</v>
       </c>
       <c r="M7">
-        <v>13.13670141991404</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.14978817940948</v>
+      </c>
+      <c r="N7">
+        <v>16.45366414535654</v>
+      </c>
+      <c r="O7">
+        <v>31.66808808856452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.66736306477123</v>
+        <v>23.43468710327327</v>
       </c>
       <c r="C8">
-        <v>21.27489062285654</v>
+        <v>13.37325904987688</v>
       </c>
       <c r="D8">
-        <v>7.065872056345755</v>
+        <v>6.875631782409849</v>
       </c>
       <c r="E8">
-        <v>5.893612257312652</v>
+        <v>6.010757642365527</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.098263418485804</v>
+        <v>2.11251084823104</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.49578037122535</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4.47765532210511</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>17.61215504090102</v>
+        <v>18.98729564097938</v>
       </c>
       <c r="L8">
-        <v>11.22365164858298</v>
+        <v>6.156569356337519</v>
       </c>
       <c r="M8">
-        <v>13.99964388197256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.84084874635279</v>
+      </c>
+      <c r="N8">
+        <v>16.3318092535534</v>
+      </c>
+      <c r="O8">
+        <v>33.11415495290569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.01972231170016</v>
+        <v>26.90521310949897</v>
       </c>
       <c r="C9">
-        <v>25.02615176362375</v>
+        <v>15.6628195229648</v>
       </c>
       <c r="D9">
-        <v>8.056893409413121</v>
+        <v>8.065468415265068</v>
       </c>
       <c r="E9">
-        <v>6.191764541600127</v>
+        <v>6.083529066979958</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.053231645918643</v>
+        <v>2.082624828637967</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>72.92258122746344</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4.525177401078538</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>21.01113190211154</v>
+        <v>22.16261410912275</v>
       </c>
       <c r="L9">
-        <v>12.59572448567645</v>
+        <v>6.349377556241207</v>
       </c>
       <c r="M9">
-        <v>16.52167923293295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15.20266505544522</v>
+      </c>
+      <c r="N9">
+        <v>16.14352855715002</v>
+      </c>
+      <c r="O9">
+        <v>36.04697779491181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.43271870958389</v>
+        <v>29.45672824473789</v>
       </c>
       <c r="C10">
-        <v>27.72075455222867</v>
+        <v>17.22374502784076</v>
       </c>
       <c r="D10">
-        <v>8.78213353709943</v>
+        <v>8.874898018347443</v>
       </c>
       <c r="E10">
-        <v>6.429015893690414</v>
+        <v>6.142568636108446</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.019180247666531</v>
+        <v>2.061022889333191</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>79.62248603989497</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4.564822588041348</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>23.42466107297097</v>
+        <v>24.40105766055182</v>
       </c>
       <c r="L10">
-        <v>13.60983784565463</v>
+        <v>6.509115045244664</v>
       </c>
       <c r="M10">
-        <v>18.36376003521006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16.20384595254146</v>
+      </c>
+      <c r="N10">
+        <v>16.04202297506433</v>
+      </c>
+      <c r="O10">
+        <v>38.26191049437828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.53369776269466</v>
+        <v>30.61952339913011</v>
       </c>
       <c r="C11">
-        <v>28.93362017731935</v>
+        <v>17.91063404057441</v>
       </c>
       <c r="D11">
-        <v>9.114013145657026</v>
+        <v>9.230562348286856</v>
       </c>
       <c r="E11">
-        <v>6.54208196957859</v>
+        <v>6.171129907302846</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.00319782710226</v>
+        <v>2.051200874150998</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>82.64636437579234</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4.584529603049473</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>24.51744743988725</v>
+        <v>25.38523520214176</v>
       </c>
       <c r="L11">
-        <v>14.07589122056915</v>
+        <v>6.586074341476385</v>
       </c>
       <c r="M11">
-        <v>19.19392696317026</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.65944875760172</v>
+      </c>
+      <c r="N11">
+        <v>16.00541283447264</v>
+      </c>
+      <c r="O11">
+        <v>39.28433097548689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.95268493317505</v>
+        <v>31.0549753681408</v>
       </c>
       <c r="C12">
-        <v>29.39241190736997</v>
+        <v>18.1677075989848</v>
       </c>
       <c r="D12">
-        <v>9.244638059072667</v>
+        <v>9.36358140823442</v>
       </c>
       <c r="E12">
-        <v>6.585774151828698</v>
+        <v>6.182240186155602</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.997043465133221</v>
+        <v>2.047475186355029</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>83.79094445818419</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4.592306715487513</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>24.93197339638284</v>
+        <v>25.75339138177635</v>
       </c>
       <c r="L12">
-        <v>14.25349675630996</v>
+        <v>6.615870202511011</v>
       </c>
       <c r="M12">
-        <v>19.50820549205415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.86153406639441</v>
+      </c>
+      <c r="N12">
+        <v>15.99308037952819</v>
+      </c>
+      <c r="O12">
+        <v>39.67389118761199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.86232611720092</v>
+        <v>30.96140296110475</v>
       </c>
       <c r="C13">
-        <v>29.29359893336323</v>
+        <v>18.11247205627509</v>
       </c>
       <c r="D13">
-        <v>9.213512969594197</v>
+        <v>9.335004893202862</v>
       </c>
       <c r="E13">
-        <v>6.576322619562852</v>
+        <v>6.179833393631237</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.998374054324821</v>
+        <v>2.048277983020673</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>83.5444040020457</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4.590616366908216</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>24.84263870666858</v>
+        <v>25.67429729525924</v>
       </c>
       <c r="L13">
-        <v>14.21518755435937</v>
+        <v>6.60942345105205</v>
       </c>
       <c r="M13">
-        <v>19.4405043903571</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.8101241107274</v>
+      </c>
+      <c r="N13">
+        <v>15.99566557687669</v>
+      </c>
+      <c r="O13">
+        <v>39.58988073839978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.56811583092638</v>
+        <v>30.65544354915246</v>
       </c>
       <c r="C14">
-        <v>28.97136595082268</v>
+        <v>17.93184263489722</v>
       </c>
       <c r="D14">
-        <v>9.124388311109703</v>
+        <v>9.241538363911923</v>
       </c>
       <c r="E14">
-        <v>6.545658044188574</v>
+        <v>6.172037733425209</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.002693762131291</v>
+        <v>2.050894529746626</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>82.74051951272347</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4.585162624251274</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>24.55152673659765</v>
+        <v>25.41561208806086</v>
       </c>
       <c r="L14">
-        <v>14.09047735053502</v>
+        <v>6.588512350400872</v>
       </c>
       <c r="M14">
-        <v>19.21977768462351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.67364676278194</v>
+      </c>
+      <c r="N14">
+        <v>16.00436657895206</v>
+      </c>
+      <c r="O14">
+        <v>39.3163305167732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.38822819173508</v>
+        <v>30.46741231834048</v>
       </c>
       <c r="C15">
-        <v>28.77397163368249</v>
+        <v>17.82081602115906</v>
       </c>
       <c r="D15">
-        <v>9.07016056895454</v>
+        <v>9.184075322493785</v>
       </c>
       <c r="E15">
-        <v>6.526994058789998</v>
+        <v>6.167302675212385</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.005325326182196</v>
+        <v>2.052496193707322</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>82.24815508476694</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4.581865578165911</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>24.37335473311015</v>
+        <v>25.25658197564361</v>
       </c>
       <c r="L15">
-        <v>14.01425063405296</v>
+        <v>6.575789906817864</v>
       </c>
       <c r="M15">
-        <v>19.08460018122185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.59940468702229</v>
+      </c>
+      <c r="N15">
+        <v>16.0099005849648</v>
+      </c>
+      <c r="O15">
+        <v>39.14909414621066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.36096014967593</v>
+        <v>29.38003285469809</v>
       </c>
       <c r="C16">
-        <v>27.641339139508</v>
+        <v>17.17841317934818</v>
       </c>
       <c r="D16">
-        <v>8.760509538733988</v>
+        <v>8.851413648583929</v>
       </c>
       <c r="E16">
-        <v>6.421741006676958</v>
+        <v>6.140740435183889</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.020212333464037</v>
+        <v>2.061664303169138</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>79.42461891695815</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4.563574189296321</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>23.35325685477148</v>
+        <v>24.3360837741661</v>
       </c>
       <c r="L16">
-        <v>13.57950948632441</v>
+        <v>6.504174882611864</v>
       </c>
       <c r="M16">
-        <v>18.30943210028882</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16.17407774764439</v>
+      </c>
+      <c r="N16">
+        <v>16.04462079676623</v>
+      </c>
+      <c r="O16">
+        <v>38.19541106679274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.73261390713443</v>
+        <v>28.70385825066831</v>
       </c>
       <c r="C17">
-        <v>26.94405485204139</v>
+        <v>16.77858076484046</v>
       </c>
       <c r="D17">
-        <v>8.571251731084431</v>
+        <v>8.644217115269708</v>
       </c>
       <c r="E17">
-        <v>6.358573494499923</v>
+        <v>6.124914549304207</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.029199090545161</v>
+        <v>2.067285211298903</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>77.68817224873641</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4.552827638114954</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>22.7270603094196</v>
+        <v>23.76290207619075</v>
       </c>
       <c r="L17">
-        <v>13.31428735763241</v>
+        <v>6.461364620973699</v>
       </c>
       <c r="M17">
-        <v>17.8325491834617</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15.9132164019788</v>
+      </c>
+      <c r="N17">
+        <v>16.0684741473601</v>
+      </c>
+      <c r="O17">
+        <v>37.6143074836817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.37139877514696</v>
+        <v>28.31147998744414</v>
       </c>
       <c r="C18">
-        <v>26.54167887351321</v>
+        <v>16.54640551239241</v>
       </c>
       <c r="D18">
-        <v>8.462555015695026</v>
+        <v>8.52385248982984</v>
       </c>
       <c r="E18">
-        <v>6.322714695491409</v>
+        <v>6.115968862505712</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.034323984346796</v>
+        <v>2.070519136589873</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>76.68694011911991</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4.546798439587001</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>22.36629901295108</v>
+        <v>23.42998788286057</v>
       </c>
       <c r="L18">
-        <v>13.16214918925947</v>
+        <v>6.437143008246656</v>
       </c>
       <c r="M18">
-        <v>17.55744912085847</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.76318535568421</v>
+      </c>
+      <c r="N18">
+        <v>16.08308374112893</v>
+      </c>
+      <c r="O18">
+        <v>37.28144697834257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.24908884020934</v>
+        <v>28.1780229946547</v>
       </c>
       <c r="C19">
-        <v>26.40517942969432</v>
+        <v>16.46740832875028</v>
       </c>
       <c r="D19">
-        <v>8.425771300149442</v>
+        <v>8.482890591960627</v>
       </c>
       <c r="E19">
-        <v>6.310651295067308</v>
+        <v>6.112965581912671</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.036052446854018</v>
+        <v>2.071614444260528</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.34743914082783</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4.544781226657667</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>22.2440119761561</v>
+        <v>23.31670272174679</v>
       </c>
       <c r="L19">
-        <v>13.11069736505356</v>
+        <v>6.429009994325936</v>
       </c>
       <c r="M19">
-        <v>17.46413853741975</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.71238824394969</v>
+      </c>
+      <c r="N19">
+        <v>16.08817874008928</v>
+      </c>
+      <c r="O19">
+        <v>37.16897615127021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.79947226296078</v>
+        <v>28.77619388754211</v>
       </c>
       <c r="C20">
-        <v>27.01840949568365</v>
+        <v>16.82136950698793</v>
       </c>
       <c r="D20">
-        <v>8.591380025848219</v>
+        <v>8.666395804457036</v>
       </c>
       <c r="E20">
-        <v>6.365247913276884</v>
+        <v>6.126582665411999</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.028247195443673</v>
+        <v>2.066686807460247</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>77.87325740577121</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4.553955432736505</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>22.79377172199278</v>
+        <v>23.82425055454697</v>
       </c>
       <c r="L20">
-        <v>13.34247551052171</v>
+        <v>6.465880031786756</v>
       </c>
       <c r="M20">
-        <v>17.88339131680676</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>15.94098433229548</v>
+      </c>
+      <c r="N20">
+        <v>16.06584177364802</v>
+      </c>
+      <c r="O20">
+        <v>37.67602312948124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.65446135104621</v>
+        <v>30.74544014566473</v>
       </c>
       <c r="C21">
-        <v>29.06601419231677</v>
+        <v>17.9849776986071</v>
       </c>
       <c r="D21">
-        <v>9.150416015602902</v>
+        <v>9.269035669564229</v>
       </c>
       <c r="E21">
-        <v>6.554639875343092</v>
+        <v>6.174319068633238</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.001428025021348</v>
+        <v>2.050126218632951</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>82.97662536315138</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4.586755284450363</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>24.63700050727093</v>
+        <v>25.49171390054798</v>
       </c>
       <c r="L21">
-        <v>14.12707299700029</v>
+        <v>6.594636408891749</v>
       </c>
       <c r="M21">
-        <v>19.28460321741501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.70925090444715</v>
+      </c>
+      <c r="N21">
+        <v>16.00176797807265</v>
+      </c>
+      <c r="O21">
+        <v>39.39661132276822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.87997367438247</v>
+        <v>32.00428214959208</v>
       </c>
       <c r="C22">
-        <v>30.4023042211634</v>
+        <v>18.72793499831558</v>
       </c>
       <c r="D22">
-        <v>9.562438561243901</v>
+        <v>9.653280797978017</v>
       </c>
       <c r="E22">
-        <v>6.683625527278106</v>
+        <v>6.207265332110223</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.983283199160186</v>
+        <v>2.039262124918037</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>86.31115935761055</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4.610077225084352</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>25.84679774552331</v>
+        <v>26.5553068732159</v>
       </c>
       <c r="L22">
-        <v>14.64672218522728</v>
+        <v>6.682614023738291</v>
       </c>
       <c r="M22">
-        <v>20.20056728602737</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17.3825368884556</v>
+      </c>
+      <c r="N22">
+        <v>15.9689055614639</v>
+      </c>
+      <c r="O22">
+        <v>40.5352597737043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.22403497765533</v>
+        <v>31.33484834944838</v>
       </c>
       <c r="C23">
-        <v>29.68871887888049</v>
+        <v>18.33289864006617</v>
       </c>
       <c r="D23">
-        <v>9.337939841959193</v>
+        <v>9.44902982530159</v>
       </c>
       <c r="E23">
-        <v>6.614249542561152</v>
+        <v>6.189502558749561</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.993036671541607</v>
+        <v>2.045066826125121</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>84.53030365834115</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4.597426625201881</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>25.20004386716615</v>
+        <v>25.98990493629363</v>
       </c>
       <c r="L23">
-        <v>14.36855568801143</v>
+        <v>6.63529496444013</v>
       </c>
       <c r="M23">
-        <v>19.71126268882938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>17.01523991612177</v>
+      </c>
+      <c r="N23">
+        <v>15.98556249062287</v>
+      </c>
+      <c r="O23">
+        <v>39.92613210389946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.76924562257079</v>
+        <v>28.74350230003489</v>
       </c>
       <c r="C24">
-        <v>26.9847985246077</v>
+        <v>16.80203192203211</v>
       </c>
       <c r="D24">
-        <v>8.58227970399483</v>
+        <v>8.6563727060477</v>
       </c>
       <c r="E24">
-        <v>6.362228994722805</v>
+        <v>6.125828037723072</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.02867767489714</v>
+        <v>2.066957337876844</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>77.78958972923665</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4.553445097530719</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>22.76361394028412</v>
+        <v>23.79652547654543</v>
       </c>
       <c r="L24">
-        <v>13.3297306137179</v>
+        <v>6.463837400597291</v>
       </c>
       <c r="M24">
-        <v>17.8604085708491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15.92843063604025</v>
+      </c>
+      <c r="N24">
+        <v>16.06702909050837</v>
+      </c>
+      <c r="O24">
+        <v>37.64811769253243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.12550952589434</v>
+        <v>25.98816998981896</v>
       </c>
       <c r="C25">
-        <v>24.0151016557755</v>
+        <v>15.06567117160082</v>
       </c>
       <c r="D25">
-        <v>7.789925966776555</v>
+        <v>7.755416474183442</v>
       </c>
       <c r="E25">
-        <v>6.108232389813995</v>
+        <v>6.063010495898318</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.065504168518609</v>
+        <v>2.090625505256186</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.41870466360407</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4.51166894112377</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>20.10996407375449</v>
+        <v>21.30585512172999</v>
       </c>
       <c r="L25">
-        <v>12.22429530061429</v>
+        <v>6.294152984142065</v>
       </c>
       <c r="M25">
-        <v>15.83078426062509</v>
+        <v>14.83401667593693</v>
+      </c>
+      <c r="N25">
+        <v>16.18847352123498</v>
+      </c>
+      <c r="O25">
+        <v>35.24330845239345</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,125 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="B2">
+        <v>12.56911634295124</v>
+      </c>
+      <c r="C2">
+        <v>8.441632662269951</v>
+      </c>
+      <c r="D2">
+        <v>7.06579279980894</v>
+      </c>
+      <c r="E2">
+        <v>8.414407266037674</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>24.4432574938926</v>
+      </c>
+      <c r="H2">
+        <v>2.50306548413901</v>
+      </c>
+      <c r="I2">
+        <v>3.120350330601341</v>
+      </c>
+      <c r="J2">
+        <v>9.590107053851229</v>
+      </c>
+      <c r="K2">
+        <v>15.91740876453217</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>10.86559320568647</v>
+      </c>
+      <c r="N2">
+        <v>6.596043522745065</v>
+      </c>
+      <c r="O2">
+        <v>9.762151607475902</v>
+      </c>
+      <c r="P2">
+        <v>13.13297298451509</v>
+      </c>
+      <c r="Q2">
+        <v>15.81985783784425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="B3">
+        <v>11.77711794650652</v>
+      </c>
+      <c r="C3">
+        <v>8.232960349780241</v>
+      </c>
+      <c r="D3">
+        <v>6.584528989068247</v>
+      </c>
+      <c r="E3">
+        <v>8.277608033842995</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>24.07280076987946</v>
+      </c>
+      <c r="H3">
+        <v>2.670773190120057</v>
+      </c>
+      <c r="I3">
+        <v>3.255243721281811</v>
+      </c>
+      <c r="J3">
+        <v>9.600931342621884</v>
+      </c>
+      <c r="K3">
+        <v>15.9321872143836</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>10.27649370885298</v>
+      </c>
+      <c r="N3">
+        <v>6.43731162454351</v>
+      </c>
+      <c r="O3">
+        <v>9.394820499109992</v>
+      </c>
+      <c r="P3">
+        <v>13.26387802403163</v>
+      </c>
+      <c r="Q3">
+        <v>15.75541062077597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="B4">
+        <v>11.26236793800554</v>
+      </c>
+      <c r="C4">
+        <v>8.102001926446279</v>
+      </c>
+      <c r="D4">
+        <v>6.277881921272967</v>
+      </c>
+      <c r="E4">
+        <v>8.19100708726385</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>23.85229001496547</v>
+      </c>
+      <c r="H4">
+        <v>2.777703417525803</v>
+      </c>
+      <c r="I4">
+        <v>3.342067296877504</v>
+      </c>
+      <c r="J4">
+        <v>9.610192772313676</v>
+      </c>
+      <c r="K4">
+        <v>15.94455158867822</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>9.896050320486731</v>
+      </c>
+      <c r="N4">
+        <v>6.337983032818448</v>
+      </c>
+      <c r="O4">
+        <v>9.161946352954113</v>
+      </c>
+      <c r="P4">
+        <v>13.34582680808499</v>
+      </c>
+      <c r="Q4">
+        <v>15.7209584017953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="B5">
+        <v>11.04046430688125</v>
+      </c>
+      <c r="C5">
+        <v>8.051010369281979</v>
+      </c>
+      <c r="D5">
+        <v>6.165925772176095</v>
+      </c>
+      <c r="E5">
+        <v>8.153601130411591</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>23.7544102110284</v>
+      </c>
+      <c r="H5">
+        <v>2.822574776234783</v>
+      </c>
+      <c r="I5">
+        <v>3.381139116568777</v>
+      </c>
+      <c r="J5">
+        <v>9.613027933679248</v>
+      </c>
+      <c r="K5">
+        <v>15.94610588881614</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>9.736323488614278</v>
+      </c>
+      <c r="N5">
+        <v>6.297578118110768</v>
+      </c>
+      <c r="O5">
+        <v>9.064191450649403</v>
+      </c>
+      <c r="P5">
+        <v>13.37921505806141</v>
+      </c>
+      <c r="Q5">
+        <v>15.70418412956633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="B6">
+        <v>10.99732858421711</v>
+      </c>
+      <c r="C6">
+        <v>8.046290464138705</v>
+      </c>
+      <c r="D6">
+        <v>6.147162321674586</v>
+      </c>
+      <c r="E6">
+        <v>8.145551424256984</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>23.72625528462528</v>
+      </c>
+      <c r="H6">
+        <v>2.830440957132294</v>
+      </c>
+      <c r="I6">
+        <v>3.39112860070666</v>
+      </c>
+      <c r="J6">
+        <v>9.61159982811772</v>
+      </c>
+      <c r="K6">
+        <v>15.94116125390642</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>9.709457523825092</v>
+      </c>
+      <c r="N6">
+        <v>6.291464684462866</v>
+      </c>
+      <c r="O6">
+        <v>9.046476788431775</v>
+      </c>
+      <c r="P6">
+        <v>13.3842859839823</v>
+      </c>
+      <c r="Q6">
+        <v>15.69658079431493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="B7">
+        <v>11.24380763844026</v>
+      </c>
+      <c r="C7">
+        <v>8.11162440829273</v>
+      </c>
+      <c r="D7">
+        <v>6.276343764431107</v>
+      </c>
+      <c r="E7">
+        <v>8.185634597200519</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>23.81833443988008</v>
+      </c>
+      <c r="H7">
+        <v>2.779254297148058</v>
+      </c>
+      <c r="I7">
+        <v>3.35168593321483</v>
+      </c>
+      <c r="J7">
+        <v>9.604948816129463</v>
+      </c>
+      <c r="K7">
+        <v>15.93025126832759</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>9.893740811843426</v>
+      </c>
+      <c r="N7">
+        <v>6.339129360634326</v>
+      </c>
+      <c r="O7">
+        <v>9.15690977702868</v>
+      </c>
+      <c r="P7">
+        <v>13.34496364169681</v>
+      </c>
+      <c r="Q7">
+        <v>15.7073990286202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="B8">
+        <v>12.28202152214235</v>
+      </c>
+      <c r="C8">
+        <v>8.383756278967503</v>
+      </c>
+      <c r="D8">
+        <v>6.903360704989813</v>
+      </c>
+      <c r="E8">
+        <v>8.361547402831246</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>24.27184538230596</v>
+      </c>
+      <c r="H8">
+        <v>2.561257242640829</v>
+      </c>
+      <c r="I8">
+        <v>3.177627252293085</v>
+      </c>
+      <c r="J8">
+        <v>9.586357655804274</v>
+      </c>
+      <c r="K8">
+        <v>15.90299378911691</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>10.66618877480214</v>
+      </c>
+      <c r="N8">
+        <v>6.543925120120035</v>
+      </c>
+      <c r="O8">
+        <v>9.632374541508938</v>
+      </c>
+      <c r="P8">
+        <v>13.17626065152768</v>
+      </c>
+      <c r="Q8">
+        <v>15.77911602275844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="B9">
+        <v>14.17621853525994</v>
+      </c>
+      <c r="C9">
+        <v>8.87662030094234</v>
+      </c>
+      <c r="D9">
+        <v>8.009255029885187</v>
+      </c>
+      <c r="E9">
+        <v>8.693684382811343</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>25.27062425616651</v>
+      </c>
+      <c r="H9">
+        <v>2.163092597338118</v>
+      </c>
+      <c r="I9">
+        <v>2.852808143829915</v>
+      </c>
+      <c r="J9">
+        <v>9.580573694928663</v>
+      </c>
+      <c r="K9">
+        <v>15.90178223283813</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>12.03023152921908</v>
+      </c>
+      <c r="N9">
+        <v>6.926317820978761</v>
+      </c>
+      <c r="O9">
+        <v>10.50839983624628</v>
+      </c>
+      <c r="P9">
+        <v>12.85949414621686</v>
+      </c>
+      <c r="Q9">
+        <v>15.98476744003542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="B10">
+        <v>15.37456640908926</v>
+      </c>
+      <c r="C10">
+        <v>9.260726106263631</v>
+      </c>
+      <c r="D10">
+        <v>8.739674826259188</v>
+      </c>
+      <c r="E10">
+        <v>8.822184724231807</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>25.87350373396902</v>
+      </c>
+      <c r="H10">
+        <v>1.919263063672874</v>
+      </c>
+      <c r="I10">
+        <v>2.643303787049219</v>
+      </c>
+      <c r="J10">
+        <v>9.56293490531594</v>
+      </c>
+      <c r="K10">
+        <v>15.85130328156565</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>12.93719728337441</v>
+      </c>
+      <c r="N10">
+        <v>7.097338506769566</v>
+      </c>
+      <c r="O10">
+        <v>11.02064004236326</v>
+      </c>
+      <c r="P10">
+        <v>12.63015689173321</v>
+      </c>
+      <c r="Q10">
+        <v>16.09445262149255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="B11">
+        <v>15.55008505327106</v>
+      </c>
+      <c r="C11">
+        <v>9.741171799957524</v>
+      </c>
+      <c r="D11">
+        <v>9.051369543302425</v>
+      </c>
+      <c r="E11">
+        <v>8.15217899065714</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>24.85498234818007</v>
+      </c>
+      <c r="H11">
+        <v>2.884121108841148</v>
+      </c>
+      <c r="I11">
+        <v>2.606752648615372</v>
+      </c>
+      <c r="J11">
+        <v>9.33562680206478</v>
+      </c>
+      <c r="K11">
+        <v>15.29535345099833</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>13.3224273801686</v>
+      </c>
+      <c r="N11">
+        <v>6.36685558151154</v>
+      </c>
+      <c r="O11">
+        <v>10.49634764000933</v>
+      </c>
+      <c r="P11">
+        <v>12.51341279861373</v>
+      </c>
+      <c r="Q11">
+        <v>15.5961905867995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="B12">
+        <v>15.47181551934403</v>
+      </c>
+      <c r="C12">
+        <v>10.08017944289272</v>
+      </c>
+      <c r="D12">
+        <v>9.16577232382101</v>
+      </c>
+      <c r="E12">
+        <v>7.786070311953257</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>23.89506829677793</v>
+      </c>
+      <c r="H12">
+        <v>4.237399664408082</v>
+      </c>
+      <c r="I12">
+        <v>2.598529004224419</v>
+      </c>
+      <c r="J12">
+        <v>9.152311315295663</v>
+      </c>
+      <c r="K12">
+        <v>14.86182658818621</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>13.46372802847301</v>
+      </c>
+      <c r="N12">
+        <v>5.785885295102804</v>
+      </c>
+      <c r="O12">
+        <v>9.947810775558109</v>
+      </c>
+      <c r="P12">
+        <v>12.47878518518012</v>
+      </c>
+      <c r="Q12">
+        <v>15.1644248949629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="B13">
+        <v>15.17337853385185</v>
+      </c>
+      <c r="C13">
+        <v>10.34611764108099</v>
+      </c>
+      <c r="D13">
+        <v>9.138858333684023</v>
+      </c>
+      <c r="E13">
+        <v>7.648486932076123</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>22.86192276077484</v>
+      </c>
+      <c r="H13">
+        <v>5.645143689926154</v>
+      </c>
+      <c r="I13">
+        <v>2.627274818984516</v>
+      </c>
+      <c r="J13">
+        <v>8.983488564982798</v>
+      </c>
+      <c r="K13">
+        <v>14.47599918248984</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>13.42986186408215</v>
+      </c>
+      <c r="N13">
+        <v>5.307339554981442</v>
+      </c>
+      <c r="O13">
+        <v>9.332354971453828</v>
+      </c>
+      <c r="P13">
+        <v>12.50099830962215</v>
+      </c>
+      <c r="Q13">
+        <v>14.73556941821075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="B14">
+        <v>14.8569901732754</v>
+      </c>
+      <c r="C14">
+        <v>10.50667210226661</v>
+      </c>
+      <c r="D14">
+        <v>9.055736757711284</v>
+      </c>
+      <c r="E14">
+        <v>7.69434517343526</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>22.09476694893561</v>
+      </c>
+      <c r="H14">
+        <v>6.646227520975873</v>
+      </c>
+      <c r="I14">
+        <v>2.667151321943463</v>
+      </c>
+      <c r="J14">
+        <v>8.871247144526476</v>
+      </c>
+      <c r="K14">
+        <v>14.22798314283186</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>13.32653252692766</v>
+      </c>
+      <c r="N14">
+        <v>5.049574136696958</v>
+      </c>
+      <c r="O14">
+        <v>8.866828516985246</v>
+      </c>
+      <c r="P14">
+        <v>12.54291774134854</v>
+      </c>
+      <c r="Q14">
+        <v>14.43436294954481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="B15">
+        <v>14.72675131481181</v>
+      </c>
+      <c r="C15">
+        <v>10.53251445162433</v>
+      </c>
+      <c r="D15">
+        <v>9.004943027096127</v>
+      </c>
+      <c r="E15">
+        <v>7.721511425695017</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>21.88377438361748</v>
+      </c>
+      <c r="H15">
+        <v>6.879519919470861</v>
+      </c>
+      <c r="I15">
+        <v>2.689809645944425</v>
+      </c>
+      <c r="J15">
+        <v>8.845850712806138</v>
+      </c>
+      <c r="K15">
+        <v>14.17364493542479</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>13.26334893741377</v>
+      </c>
+      <c r="N15">
+        <v>4.999242004810879</v>
+      </c>
+      <c r="O15">
+        <v>8.737812937749972</v>
+      </c>
+      <c r="P15">
+        <v>12.56330131003619</v>
+      </c>
+      <c r="Q15">
+        <v>14.35855773685528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>14.26615105848647</v>
+      </c>
+      <c r="C16">
+        <v>10.3302587298717</v>
+      </c>
+      <c r="D16">
+        <v>8.710604730443846</v>
+      </c>
+      <c r="E16">
+        <v>7.68112156603841</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>21.78623617270064</v>
+      </c>
+      <c r="H16">
+        <v>6.680510703300492</v>
+      </c>
+      <c r="I16">
+        <v>2.77920268999576</v>
+      </c>
+      <c r="J16">
+        <v>8.883868630168386</v>
+      </c>
+      <c r="K16">
+        <v>14.26785622568301</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>12.89666796441837</v>
+      </c>
+      <c r="N16">
+        <v>5.013009382501689</v>
+      </c>
+      <c r="O16">
+        <v>8.61767154432512</v>
+      </c>
+      <c r="P16">
+        <v>12.6483451825239</v>
+      </c>
+      <c r="Q16">
+        <v>14.38600240611523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>14.08164885025574</v>
+      </c>
+      <c r="C17">
+        <v>10.08397446810579</v>
+      </c>
+      <c r="D17">
+        <v>8.526190398922271</v>
+      </c>
+      <c r="E17">
+        <v>7.602313673382538</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>22.12645636163012</v>
+      </c>
+      <c r="H17">
+        <v>5.965242717996558</v>
+      </c>
+      <c r="I17">
+        <v>2.82745125142808</v>
+      </c>
+      <c r="J17">
+        <v>8.972719604125496</v>
+      </c>
+      <c r="K17">
+        <v>14.46952084626283</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>12.66696617200363</v>
+      </c>
+      <c r="N17">
+        <v>5.146630277231918</v>
+      </c>
+      <c r="O17">
+        <v>8.778742974324981</v>
+      </c>
+      <c r="P17">
+        <v>12.69213089246587</v>
+      </c>
+      <c r="Q17">
+        <v>14.56793898521188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>14.13242647218778</v>
+      </c>
+      <c r="C18">
+        <v>9.772288012921113</v>
+      </c>
+      <c r="D18">
+        <v>8.419481830635659</v>
+      </c>
+      <c r="E18">
+        <v>7.613403315689668</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>22.90054157235963</v>
+      </c>
+      <c r="H18">
+        <v>4.756807093861315</v>
+      </c>
+      <c r="I18">
+        <v>2.833315654355758</v>
+      </c>
+      <c r="J18">
+        <v>9.118602002618729</v>
+      </c>
+      <c r="K18">
+        <v>14.80156523051223</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>12.53443876441121</v>
+      </c>
+      <c r="N18">
+        <v>5.471245579137338</v>
+      </c>
+      <c r="O18">
+        <v>9.206340753714324</v>
+      </c>
+      <c r="P18">
+        <v>12.711601132169</v>
+      </c>
+      <c r="Q18">
+        <v>14.91153261668986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>14.34548083042967</v>
+      </c>
+      <c r="C19">
+        <v>9.476155895457167</v>
+      </c>
+      <c r="D19">
+        <v>8.384546924718263</v>
+      </c>
+      <c r="E19">
+        <v>7.884400184963555</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>23.90806552113518</v>
+      </c>
+      <c r="H19">
+        <v>3.357119553462945</v>
+      </c>
+      <c r="I19">
+        <v>2.822310485955382</v>
+      </c>
+      <c r="J19">
+        <v>9.29139638032524</v>
+      </c>
+      <c r="K19">
+        <v>15.20201935280033</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>12.49210051412136</v>
+      </c>
+      <c r="N19">
+        <v>6.014007048535237</v>
+      </c>
+      <c r="O19">
+        <v>9.811005183573767</v>
+      </c>
+      <c r="P19">
+        <v>12.71981425416726</v>
+      </c>
+      <c r="Q19">
+        <v>15.33832992169128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>15.03124031163563</v>
+      </c>
+      <c r="C20">
+        <v>9.193344424866757</v>
+      </c>
+      <c r="D20">
+        <v>8.553109671881117</v>
+      </c>
+      <c r="E20">
+        <v>8.771196457286303</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>25.61338012069364</v>
+      </c>
+      <c r="H20">
+        <v>1.983983921773233</v>
+      </c>
+      <c r="I20">
+        <v>2.728885092417981</v>
+      </c>
+      <c r="J20">
+        <v>9.549560993059346</v>
+      </c>
+      <c r="K20">
+        <v>15.81741086297121</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>12.70502785159979</v>
+      </c>
+      <c r="N20">
+        <v>7.053346216651319</v>
+      </c>
+      <c r="O20">
+        <v>10.8749689715194</v>
+      </c>
+      <c r="P20">
+        <v>12.68727374613339</v>
+      </c>
+      <c r="Q20">
+        <v>16.0213851741382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>15.96978235513649</v>
+      </c>
+      <c r="C21">
+        <v>9.428197155066673</v>
+      </c>
+      <c r="D21">
+        <v>9.088774622500265</v>
+      </c>
+      <c r="E21">
+        <v>9.02355554431373</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>26.33052081833561</v>
+      </c>
+      <c r="H21">
+        <v>1.756820063066992</v>
+      </c>
+      <c r="I21">
+        <v>2.561530266886058</v>
+      </c>
+      <c r="J21">
+        <v>9.582309514939341</v>
+      </c>
+      <c r="K21">
+        <v>15.88699790347657</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>13.37218796044638</v>
+      </c>
+      <c r="N21">
+        <v>7.333223151504447</v>
+      </c>
+      <c r="O21">
+        <v>11.3902408696537</v>
+      </c>
+      <c r="P21">
+        <v>12.51881038037909</v>
+      </c>
+      <c r="Q21">
+        <v>16.21847515231536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>16.54964398355641</v>
+      </c>
+      <c r="C22">
+        <v>9.582945610456257</v>
+      </c>
+      <c r="D22">
+        <v>9.424345987523544</v>
+      </c>
+      <c r="E22">
+        <v>9.140136530762092</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>26.76625902077684</v>
+      </c>
+      <c r="H22">
+        <v>1.624702909914474</v>
+      </c>
+      <c r="I22">
+        <v>2.556449962874745</v>
+      </c>
+      <c r="J22">
+        <v>9.600477372577208</v>
+      </c>
+      <c r="K22">
+        <v>15.92327052335975</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>13.79050061178313</v>
+      </c>
+      <c r="N22">
+        <v>7.460658315470295</v>
+      </c>
+      <c r="O22">
+        <v>11.6773011053926</v>
+      </c>
+      <c r="P22">
+        <v>12.40909482030154</v>
+      </c>
+      <c r="Q22">
+        <v>16.33711677017924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>16.25589890959219</v>
+      </c>
+      <c r="C23">
+        <v>9.489184038824797</v>
+      </c>
+      <c r="D23">
+        <v>9.246633255050375</v>
+      </c>
+      <c r="E23">
+        <v>9.083133889225147</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>26.56761278468987</v>
+      </c>
+      <c r="H23">
+        <v>1.69406889995075</v>
+      </c>
+      <c r="I23">
+        <v>2.498869165014251</v>
+      </c>
+      <c r="J23">
+        <v>9.596529306968836</v>
+      </c>
+      <c r="K23">
+        <v>15.91991114673009</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>13.56898726063859</v>
+      </c>
+      <c r="N23">
+        <v>7.39105111630671</v>
+      </c>
+      <c r="O23">
+        <v>11.52850221122655</v>
+      </c>
+      <c r="P23">
+        <v>12.46839726447082</v>
+      </c>
+      <c r="Q23">
+        <v>16.28813879416391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>15.06706757236668</v>
+      </c>
+      <c r="C24">
+        <v>9.146535162773702</v>
+      </c>
+      <c r="D24">
+        <v>8.544510429724189</v>
+      </c>
+      <c r="E24">
+        <v>8.854446987160792</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>25.77116297438364</v>
+      </c>
+      <c r="H24">
+        <v>1.964236954186561</v>
+      </c>
+      <c r="I24">
+        <v>2.708571373353109</v>
+      </c>
+      <c r="J24">
+        <v>9.577890140032959</v>
+      </c>
+      <c r="K24">
+        <v>15.88908917478751</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>12.69475589882331</v>
+      </c>
+      <c r="N24">
+        <v>7.125089113329828</v>
+      </c>
+      <c r="O24">
+        <v>10.94148163636302</v>
+      </c>
+      <c r="P24">
+        <v>12.69389182002171</v>
+      </c>
+      <c r="Q24">
+        <v>16.09016395623947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>13.66545213681057</v>
+      </c>
+      <c r="C25">
+        <v>8.7638644451101</v>
+      </c>
+      <c r="D25">
+        <v>7.724426282424606</v>
+      </c>
+      <c r="E25">
+        <v>8.598005783196422</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>24.93930693003909</v>
+      </c>
+      <c r="H25">
+        <v>2.269063192634746</v>
+      </c>
+      <c r="I25">
+        <v>2.954200194992709</v>
+      </c>
+      <c r="J25">
+        <v>9.570404838383604</v>
+      </c>
+      <c r="K25">
+        <v>15.87368398279286</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>11.67740333496388</v>
+      </c>
+      <c r="N25">
+        <v>6.82774286724027</v>
+      </c>
+      <c r="O25">
+        <v>10.27264735957815</v>
+      </c>
+      <c r="P25">
+        <v>12.94221812532676</v>
+      </c>
+      <c r="Q25">
+        <v>15.9011340195507</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.56911634295124</v>
+        <v>12.35700626606759</v>
       </c>
       <c r="C2">
-        <v>8.441632662269951</v>
+        <v>8.247076392353634</v>
       </c>
       <c r="D2">
-        <v>7.06579279980894</v>
+        <v>7.070186352594289</v>
       </c>
       <c r="E2">
-        <v>8.414407266037674</v>
+        <v>8.275068153498314</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.4432574938926</v>
+        <v>23.05501401154628</v>
       </c>
       <c r="H2">
-        <v>2.50306548413901</v>
+        <v>2.414647674706479</v>
       </c>
       <c r="I2">
-        <v>3.120350330601341</v>
+        <v>3.006012826184131</v>
       </c>
       <c r="J2">
-        <v>9.590107053851229</v>
+        <v>9.741376258272325</v>
       </c>
       <c r="K2">
-        <v>15.91740876453217</v>
+        <v>15.3558710518093</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.67061886556035</v>
       </c>
       <c r="M2">
-        <v>10.86559320568647</v>
+        <v>10.0457851334682</v>
       </c>
       <c r="N2">
-        <v>6.596043522745065</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.762151607475902</v>
+        <v>10.88437448031592</v>
       </c>
       <c r="P2">
-        <v>13.13297298451509</v>
+        <v>6.724338309327103</v>
       </c>
       <c r="Q2">
-        <v>15.81985783784425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.667270466828485</v>
+      </c>
+      <c r="R2">
+        <v>13.00117282364447</v>
+      </c>
+      <c r="S2">
+        <v>15.40504545266265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.77711794650652</v>
+        <v>11.57429140116383</v>
       </c>
       <c r="C3">
-        <v>8.232960349780241</v>
+        <v>7.974065467195755</v>
       </c>
       <c r="D3">
-        <v>6.584528989068247</v>
+        <v>6.589305976666239</v>
       </c>
       <c r="E3">
-        <v>8.277608033842995</v>
+        <v>8.155808835830568</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.07280076987946</v>
+        <v>22.7883728213303</v>
       </c>
       <c r="H3">
-        <v>2.670773190120057</v>
+        <v>2.571356999078825</v>
       </c>
       <c r="I3">
-        <v>3.255243721281811</v>
+        <v>3.126791395290152</v>
       </c>
       <c r="J3">
-        <v>9.600931342621884</v>
+        <v>9.731600442072979</v>
       </c>
       <c r="K3">
-        <v>15.9321872143836</v>
+        <v>15.39838780734358</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.79146134485848</v>
       </c>
       <c r="M3">
-        <v>10.27649370885298</v>
+        <v>10.01633443251653</v>
       </c>
       <c r="N3">
-        <v>6.43731162454351</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.394820499109992</v>
+        <v>10.29979604734698</v>
       </c>
       <c r="P3">
-        <v>13.26387802403163</v>
+        <v>6.567894818657334</v>
       </c>
       <c r="Q3">
-        <v>15.75541062077597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.307891112565262</v>
+      </c>
+      <c r="R3">
+        <v>13.12454663451479</v>
+      </c>
+      <c r="S3">
+        <v>15.36889192885798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.26236793800554</v>
+        <v>11.06226073808145</v>
       </c>
       <c r="C4">
-        <v>8.102001926446279</v>
+        <v>7.802974974319797</v>
       </c>
       <c r="D4">
-        <v>6.277881921272967</v>
+        <v>6.281415402443884</v>
       </c>
       <c r="E4">
-        <v>8.19100708726385</v>
+        <v>8.080164479652909</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.85229001496547</v>
+        <v>22.63356250538734</v>
       </c>
       <c r="H4">
-        <v>2.777703417525803</v>
+        <v>2.671311804802841</v>
       </c>
       <c r="I4">
-        <v>3.342067296877504</v>
+        <v>3.204845718971452</v>
       </c>
       <c r="J4">
-        <v>9.610192772313676</v>
+        <v>9.726549447769889</v>
       </c>
       <c r="K4">
-        <v>15.94455158867822</v>
+        <v>15.42678734180173</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.86679128816151</v>
       </c>
       <c r="M4">
-        <v>9.896050320486731</v>
+        <v>10.01526672476394</v>
       </c>
       <c r="N4">
-        <v>6.337983032818448</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.161946352954113</v>
+        <v>9.922356443991887</v>
       </c>
       <c r="P4">
-        <v>13.34582680808499</v>
+        <v>6.470312767649836</v>
       </c>
       <c r="Q4">
-        <v>15.7209584017953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.079833791030351</v>
+      </c>
+      <c r="R4">
+        <v>13.20201004979409</v>
+      </c>
+      <c r="S4">
+        <v>15.35090935672357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.04046430688125</v>
+        <v>10.84094484008834</v>
       </c>
       <c r="C5">
-        <v>8.051010369281979</v>
+        <v>7.736217414355487</v>
       </c>
       <c r="D5">
-        <v>6.165925772176095</v>
+        <v>6.169438049730661</v>
       </c>
       <c r="E5">
-        <v>8.153601130411591</v>
+        <v>8.047296872331966</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.7544102110284</v>
+        <v>22.56284048506654</v>
       </c>
       <c r="H5">
-        <v>2.822574776234783</v>
+        <v>2.713277465575485</v>
       </c>
       <c r="I5">
-        <v>3.381139116568777</v>
+        <v>3.240780100588408</v>
       </c>
       <c r="J5">
-        <v>9.613027933679248</v>
+        <v>9.723116456125082</v>
       </c>
       <c r="K5">
-        <v>15.94610588881614</v>
+        <v>15.43471751663736</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.89376054666776</v>
       </c>
       <c r="M5">
-        <v>9.736323488614278</v>
+        <v>10.01680640066503</v>
       </c>
       <c r="N5">
-        <v>6.297578118110768</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.064191450649403</v>
+        <v>9.763921605113039</v>
       </c>
       <c r="P5">
-        <v>13.37921505806141</v>
+        <v>6.430707587443648</v>
       </c>
       <c r="Q5">
-        <v>15.70418412956633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.984014024831774</v>
+      </c>
+      <c r="R5">
+        <v>13.23367687200956</v>
+      </c>
+      <c r="S5">
+        <v>15.34063918708349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.99732858421711</v>
+        <v>10.79793376332583</v>
       </c>
       <c r="C6">
-        <v>8.046290464138705</v>
+        <v>7.729748472084178</v>
       </c>
       <c r="D6">
-        <v>6.147162321674586</v>
+        <v>6.150670288887396</v>
       </c>
       <c r="E6">
-        <v>8.145551424256984</v>
+        <v>8.040041096003568</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>23.72625528462528</v>
+        <v>22.53917233299337</v>
       </c>
       <c r="H6">
-        <v>2.830440957132294</v>
+        <v>2.720650234522427</v>
       </c>
       <c r="I6">
-        <v>3.39112860070666</v>
+        <v>3.25085704378037</v>
       </c>
       <c r="J6">
-        <v>9.61159982811772</v>
+        <v>9.720589881457805</v>
       </c>
       <c r="K6">
-        <v>15.94116125390642</v>
+        <v>15.43092803169656</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.89335615407331</v>
       </c>
       <c r="M6">
-        <v>9.709457523825092</v>
+        <v>10.01448972554734</v>
       </c>
       <c r="N6">
-        <v>6.291464684462866</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.046476788431775</v>
+        <v>9.737280919044824</v>
       </c>
       <c r="P6">
-        <v>13.3842859839823</v>
+        <v>6.424732378679695</v>
       </c>
       <c r="Q6">
-        <v>15.69658079431493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.966612281145393</v>
+      </c>
+      <c r="R6">
+        <v>13.23855539437069</v>
+      </c>
+      <c r="S6">
+        <v>15.33413092614115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.24380763844026</v>
+        <v>11.04100780311863</v>
       </c>
       <c r="C7">
-        <v>8.11162440829273</v>
+        <v>7.810997908202704</v>
       </c>
       <c r="D7">
-        <v>6.276343764431107</v>
+        <v>6.279848742500153</v>
       </c>
       <c r="E7">
-        <v>8.185634597200519</v>
+        <v>8.075585862378615</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.81833443988008</v>
+        <v>22.67575175568715</v>
       </c>
       <c r="H7">
-        <v>2.779254297148058</v>
+        <v>2.673242127158272</v>
       </c>
       <c r="I7">
-        <v>3.35168593321483</v>
+        <v>3.216484139997632</v>
       </c>
       <c r="J7">
-        <v>9.604948816129463</v>
+        <v>9.687612018533629</v>
       </c>
       <c r="K7">
-        <v>15.93025126832759</v>
+        <v>15.40767222714736</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.84921678030912</v>
       </c>
       <c r="M7">
-        <v>9.893740811843426</v>
+        <v>10.00419023739794</v>
       </c>
       <c r="N7">
-        <v>6.339129360634326</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.15690977702868</v>
+        <v>9.9162415831203</v>
       </c>
       <c r="P7">
-        <v>13.34496364169681</v>
+        <v>6.471068260488765</v>
       </c>
       <c r="Q7">
-        <v>15.7073990286202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.07362948490413</v>
+      </c>
+      <c r="R7">
+        <v>13.20097356607038</v>
+      </c>
+      <c r="S7">
+        <v>15.3292173980611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.28202152214235</v>
+        <v>12.06596672750183</v>
       </c>
       <c r="C8">
-        <v>8.383756278967503</v>
+        <v>8.158116299862323</v>
       </c>
       <c r="D8">
-        <v>6.903360704989813</v>
+        <v>6.907760081701903</v>
       </c>
       <c r="E8">
-        <v>8.361547402831246</v>
+        <v>8.230524753900676</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.27184538230596</v>
+        <v>23.168530766414</v>
       </c>
       <c r="H8">
-        <v>2.561257242640829</v>
+        <v>2.470417745287852</v>
       </c>
       <c r="I8">
-        <v>3.177627252293085</v>
+        <v>3.061909086132341</v>
       </c>
       <c r="J8">
-        <v>9.586357655804274</v>
+        <v>9.621510923711865</v>
       </c>
       <c r="K8">
-        <v>15.90299378911691</v>
+        <v>15.33464224953003</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.68141677919735</v>
       </c>
       <c r="M8">
-        <v>10.66618877480214</v>
+        <v>10.0087289166627</v>
       </c>
       <c r="N8">
-        <v>6.543925120120035</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.632374541508938</v>
+        <v>10.67455198504343</v>
       </c>
       <c r="P8">
-        <v>13.17626065152768</v>
+        <v>6.67168746577773</v>
       </c>
       <c r="Q8">
-        <v>15.77911602275844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.536491929861935</v>
+      </c>
+      <c r="R8">
+        <v>13.04117650259342</v>
+      </c>
+      <c r="S8">
+        <v>15.34707946124169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.17621853525994</v>
+        <v>13.86271577817661</v>
       </c>
       <c r="C9">
-        <v>8.87662030094234</v>
+        <v>8.801399005463969</v>
       </c>
       <c r="D9">
-        <v>8.009255029885187</v>
+        <v>8.012320892607274</v>
       </c>
       <c r="E9">
-        <v>8.693684382811343</v>
+        <v>8.520642192670858</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>25.27062425616651</v>
+        <v>23.98113120614556</v>
       </c>
       <c r="H9">
-        <v>2.163092597338118</v>
+        <v>2.098749916048367</v>
       </c>
       <c r="I9">
-        <v>2.852808143829915</v>
+        <v>2.77028481275666</v>
       </c>
       <c r="J9">
-        <v>9.580573694928663</v>
+        <v>9.628341193761603</v>
       </c>
       <c r="K9">
-        <v>15.90178223283813</v>
+        <v>15.25386621315545</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.39972896302723</v>
       </c>
       <c r="M9">
-        <v>12.03023152921908</v>
+        <v>10.17943110939705</v>
       </c>
       <c r="N9">
-        <v>6.926317820978761</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.50839983624628</v>
+        <v>12.02657634180103</v>
       </c>
       <c r="P9">
-        <v>12.85949414621686</v>
+        <v>7.049955367958466</v>
       </c>
       <c r="Q9">
-        <v>15.98476744003542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.39186091742162</v>
+      </c>
+      <c r="R9">
+        <v>12.74405548969924</v>
+      </c>
+      <c r="S9">
+        <v>15.47024927788405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.37456640908926</v>
+        <v>14.98171797227238</v>
       </c>
       <c r="C10">
-        <v>9.260726106263631</v>
+        <v>9.274540210637724</v>
       </c>
       <c r="D10">
-        <v>8.739674826259188</v>
+        <v>8.741216256343527</v>
       </c>
       <c r="E10">
-        <v>8.822184724231807</v>
+        <v>8.628430284251081</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.87350373396902</v>
+        <v>24.88972090831759</v>
       </c>
       <c r="H10">
-        <v>1.919263063672874</v>
+        <v>1.875253338939368</v>
       </c>
       <c r="I10">
-        <v>2.643303787049219</v>
+        <v>2.587419846319115</v>
       </c>
       <c r="J10">
-        <v>9.56293490531594</v>
+        <v>9.432778717388468</v>
       </c>
       <c r="K10">
-        <v>15.85130328156565</v>
+        <v>15.11932533494451</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.13542599316603</v>
       </c>
       <c r="M10">
-        <v>12.93719728337441</v>
+        <v>10.31122824317151</v>
       </c>
       <c r="N10">
-        <v>7.097338506769566</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>11.02064004236326</v>
+        <v>12.90788208438264</v>
       </c>
       <c r="P10">
-        <v>12.63015689173321</v>
+        <v>7.216699136215683</v>
       </c>
       <c r="Q10">
-        <v>16.09445262149255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.88449286900649</v>
+      </c>
+      <c r="R10">
+        <v>12.53223951594294</v>
+      </c>
+      <c r="S10">
+        <v>15.47520413793455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.55008505327106</v>
+        <v>15.14186575416757</v>
       </c>
       <c r="C11">
-        <v>9.741171799957524</v>
+        <v>9.773109317922939</v>
       </c>
       <c r="D11">
-        <v>9.051369543302425</v>
+        <v>9.052046427120024</v>
       </c>
       <c r="E11">
-        <v>8.15217899065714</v>
+        <v>7.997356919281066</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>24.85498234818007</v>
+        <v>24.82165560442821</v>
       </c>
       <c r="H11">
-        <v>2.884121108841148</v>
+        <v>2.860349086636194</v>
       </c>
       <c r="I11">
-        <v>2.606752648615372</v>
+        <v>2.564999032839861</v>
       </c>
       <c r="J11">
-        <v>9.33562680206478</v>
+        <v>8.895320591433274</v>
       </c>
       <c r="K11">
-        <v>15.29535345099833</v>
+        <v>14.55254126164052</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.67026403169287</v>
       </c>
       <c r="M11">
-        <v>13.3224273801686</v>
+        <v>9.953084225646009</v>
       </c>
       <c r="N11">
-        <v>6.36685558151154</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.49634764000933</v>
+        <v>13.25270402792252</v>
       </c>
       <c r="P11">
-        <v>12.51341279861373</v>
+        <v>6.473501904565652</v>
       </c>
       <c r="Q11">
-        <v>15.5961905867995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.3531133159916</v>
+      </c>
+      <c r="R11">
+        <v>12.44854944324902</v>
+      </c>
+      <c r="S11">
+        <v>14.90680567168466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.47181551934403</v>
+        <v>15.07479372308041</v>
       </c>
       <c r="C12">
-        <v>10.08017944289272</v>
+        <v>10.10742713197031</v>
       </c>
       <c r="D12">
-        <v>9.16577232382101</v>
+        <v>9.166204716622991</v>
       </c>
       <c r="E12">
-        <v>7.786070311953257</v>
+        <v>7.664806336702385</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>23.89506829677793</v>
+        <v>24.33658933162679</v>
       </c>
       <c r="H12">
-        <v>4.237399664408082</v>
+        <v>4.221922406621602</v>
       </c>
       <c r="I12">
-        <v>2.598529004224419</v>
+        <v>2.559157425354069</v>
       </c>
       <c r="J12">
-        <v>9.152311315295663</v>
+        <v>8.622758807234026</v>
       </c>
       <c r="K12">
-        <v>14.86182658818621</v>
+        <v>14.14900884211143</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.3771838416583</v>
       </c>
       <c r="M12">
-        <v>13.46372802847301</v>
+        <v>9.647105490593075</v>
       </c>
       <c r="N12">
-        <v>5.785885295102804</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.947810775558109</v>
+        <v>13.37567513954614</v>
       </c>
       <c r="P12">
-        <v>12.47878518518012</v>
+        <v>5.882410889517282</v>
       </c>
       <c r="Q12">
-        <v>15.1644248949629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.806701125171418</v>
+      </c>
+      <c r="R12">
+        <v>12.43855332321756</v>
+      </c>
+      <c r="S12">
+        <v>14.46966263239798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.17337853385185</v>
+        <v>14.81471343793927</v>
       </c>
       <c r="C13">
-        <v>10.34611764108099</v>
+        <v>10.36829790824572</v>
       </c>
       <c r="D13">
-        <v>9.138858333684023</v>
+        <v>9.139633440683999</v>
       </c>
       <c r="E13">
-        <v>7.648486932076123</v>
+        <v>7.560362755705989</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>22.86192276077484</v>
+        <v>23.25168231514595</v>
       </c>
       <c r="H13">
-        <v>5.645143689926154</v>
+        <v>5.632034170461315</v>
       </c>
       <c r="I13">
-        <v>2.627274818984516</v>
+        <v>2.583534792422108</v>
       </c>
       <c r="J13">
-        <v>8.983488564982798</v>
+        <v>8.546868585998858</v>
       </c>
       <c r="K13">
-        <v>14.47599918248984</v>
+        <v>13.8344626092651</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.17596729192615</v>
       </c>
       <c r="M13">
-        <v>13.42986186408215</v>
+        <v>9.360544537367819</v>
       </c>
       <c r="N13">
-        <v>5.307339554981442</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.332354971453828</v>
+        <v>13.34670214013281</v>
       </c>
       <c r="P13">
-        <v>12.50099830962215</v>
+        <v>5.395865128019608</v>
       </c>
       <c r="Q13">
-        <v>14.73556941821075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.202749002228886</v>
+      </c>
+      <c r="R13">
+        <v>12.47564308334603</v>
+      </c>
+      <c r="S13">
+        <v>14.10296256388005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.8569901732754</v>
+        <v>14.53785137754423</v>
       </c>
       <c r="C14">
-        <v>10.50667210226661</v>
+        <v>10.52619048798376</v>
       </c>
       <c r="D14">
-        <v>9.055736757711284</v>
+        <v>9.057005432767404</v>
       </c>
       <c r="E14">
-        <v>7.69434517343526</v>
+        <v>7.630159058525248</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>22.09476694893561</v>
+        <v>22.22301992582048</v>
       </c>
       <c r="H14">
-        <v>6.646227520975873</v>
+        <v>6.633393008276806</v>
       </c>
       <c r="I14">
-        <v>2.667151321943463</v>
+        <v>2.61793344176645</v>
       </c>
       <c r="J14">
-        <v>8.871247144526476</v>
+        <v>8.567238281601973</v>
       </c>
       <c r="K14">
-        <v>14.22798314283186</v>
+        <v>13.65126252802153</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.06962501168579</v>
       </c>
       <c r="M14">
-        <v>13.32653252692766</v>
+        <v>9.170235745547108</v>
       </c>
       <c r="N14">
-        <v>5.049574136696958</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.866828516985246</v>
+        <v>13.25709118277451</v>
       </c>
       <c r="P14">
-        <v>12.54291774134854</v>
+        <v>5.133264031002425</v>
       </c>
       <c r="Q14">
-        <v>14.43436294954481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.749241105842923</v>
+      </c>
+      <c r="R14">
+        <v>12.52164510714246</v>
+      </c>
+      <c r="S14">
+        <v>13.87288425830691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.72675131481181</v>
+        <v>14.42281126973761</v>
       </c>
       <c r="C15">
-        <v>10.53251445162433</v>
+        <v>10.55284918368865</v>
       </c>
       <c r="D15">
-        <v>9.004943027096127</v>
+        <v>9.006449859695246</v>
       </c>
       <c r="E15">
-        <v>7.721511425695017</v>
+        <v>7.664062281135024</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>21.88377438361748</v>
+        <v>21.85463788597662</v>
       </c>
       <c r="H15">
-        <v>6.879519919470861</v>
+        <v>6.866305498407909</v>
       </c>
       <c r="I15">
-        <v>2.689809645944425</v>
+        <v>2.638634486594317</v>
       </c>
       <c r="J15">
-        <v>8.845850712806138</v>
+        <v>8.603631077410585</v>
       </c>
       <c r="K15">
-        <v>14.17364493542479</v>
+        <v>13.61911093840094</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.05561647060636</v>
       </c>
       <c r="M15">
-        <v>13.26334893741377</v>
+        <v>9.125813588190118</v>
       </c>
       <c r="N15">
-        <v>4.999242004810879</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.737812937749972</v>
+        <v>13.20173390825307</v>
       </c>
       <c r="P15">
-        <v>12.56330131003619</v>
+        <v>5.082431631061766</v>
       </c>
       <c r="Q15">
-        <v>14.35855773685528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.624812558343756</v>
+      </c>
+      <c r="R15">
+        <v>12.54056673641097</v>
+      </c>
+      <c r="S15">
+        <v>13.82603551728204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.26615105848647</v>
+        <v>14.01003609306444</v>
       </c>
       <c r="C16">
-        <v>10.3302587298717</v>
+        <v>10.35597427784682</v>
       </c>
       <c r="D16">
-        <v>8.710604730443846</v>
+        <v>8.713149146975818</v>
       </c>
       <c r="E16">
-        <v>7.68112156603841</v>
+        <v>7.631146922347871</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>21.78623617270064</v>
+        <v>21.00380408353222</v>
       </c>
       <c r="H16">
-        <v>6.680510703300492</v>
+        <v>6.662727916378334</v>
       </c>
       <c r="I16">
-        <v>2.77920268999576</v>
+        <v>2.715590552038736</v>
       </c>
       <c r="J16">
-        <v>8.883868630168386</v>
+        <v>8.901665254327</v>
       </c>
       <c r="K16">
-        <v>14.26785622568301</v>
+        <v>13.76613660576059</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.19150052321397</v>
       </c>
       <c r="M16">
-        <v>12.89666796441837</v>
+        <v>9.169780130613971</v>
       </c>
       <c r="N16">
-        <v>5.013009382501689</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.61767154432512</v>
+        <v>12.87261420914536</v>
       </c>
       <c r="P16">
-        <v>12.6483451825239</v>
+        <v>5.103607094858162</v>
       </c>
       <c r="Q16">
-        <v>14.38600240611523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.518680273648609</v>
+      </c>
+      <c r="R16">
+        <v>12.60535809927122</v>
+      </c>
+      <c r="S16">
+        <v>13.94976555043075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.08164885025574</v>
+        <v>13.83723272109106</v>
       </c>
       <c r="C17">
-        <v>10.08397446810579</v>
+        <v>10.1074009020085</v>
       </c>
       <c r="D17">
-        <v>8.526190398922271</v>
+        <v>8.529185962344696</v>
       </c>
       <c r="E17">
-        <v>7.602313673382538</v>
+        <v>7.542151398491992</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>22.12645636163012</v>
+        <v>21.01356692463095</v>
       </c>
       <c r="H17">
-        <v>5.965242717996558</v>
+        <v>5.942825603874549</v>
       </c>
       <c r="I17">
-        <v>2.82745125142808</v>
+        <v>2.757793760835737</v>
       </c>
       <c r="J17">
-        <v>8.972719604125496</v>
+        <v>9.099598417625984</v>
       </c>
       <c r="K17">
-        <v>14.46952084626283</v>
+        <v>13.97143280616877</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.35775863143567</v>
       </c>
       <c r="M17">
-        <v>12.66696617200363</v>
+        <v>9.29542008956127</v>
       </c>
       <c r="N17">
-        <v>5.146630277231918</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.778742974324981</v>
+        <v>12.65964288230906</v>
       </c>
       <c r="P17">
-        <v>12.69213089246587</v>
+        <v>5.245124649573254</v>
       </c>
       <c r="Q17">
-        <v>14.56793898521188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.682932610818044</v>
+      </c>
+      <c r="R17">
+        <v>12.63515304752686</v>
+      </c>
+      <c r="S17">
+        <v>14.15837788278614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.13242647218778</v>
+        <v>13.87405119394938</v>
       </c>
       <c r="C18">
-        <v>9.772288012921113</v>
+        <v>9.790792029239999</v>
       </c>
       <c r="D18">
-        <v>8.419481830635659</v>
+        <v>8.422583215352203</v>
       </c>
       <c r="E18">
-        <v>7.613403315689668</v>
+        <v>7.525404913499401</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>22.90054157235963</v>
+        <v>21.61055778349568</v>
       </c>
       <c r="H18">
-        <v>4.756807093861315</v>
+        <v>4.727848105027444</v>
       </c>
       <c r="I18">
-        <v>2.833315654355758</v>
+        <v>2.760108764655924</v>
       </c>
       <c r="J18">
-        <v>9.118602002618729</v>
+        <v>9.280555736815904</v>
       </c>
       <c r="K18">
-        <v>14.80156523051223</v>
+        <v>14.27445149616901</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.5897838873894</v>
       </c>
       <c r="M18">
-        <v>12.53443876441121</v>
+        <v>9.517652644510866</v>
       </c>
       <c r="N18">
-        <v>5.471245579137338</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.206340753714324</v>
+        <v>12.53410604582682</v>
       </c>
       <c r="P18">
-        <v>12.711601132169</v>
+        <v>5.578227888111012</v>
       </c>
       <c r="Q18">
-        <v>14.91153261668986</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.106919098288007</v>
+      </c>
+      <c r="R18">
+        <v>12.64156167926046</v>
+      </c>
+      <c r="S18">
+        <v>14.48935883224868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.34548083042967</v>
+        <v>14.0559842564876</v>
       </c>
       <c r="C19">
-        <v>9.476155895457167</v>
+        <v>9.4900749593698</v>
       </c>
       <c r="D19">
-        <v>8.384546924718263</v>
+        <v>8.387507106028702</v>
       </c>
       <c r="E19">
-        <v>7.884400184963555</v>
+        <v>7.756627550034333</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23.90806552113518</v>
+        <v>22.50968778359354</v>
       </c>
       <c r="H19">
-        <v>3.357119553462945</v>
+        <v>3.317915889194789</v>
       </c>
       <c r="I19">
-        <v>2.822310485955382</v>
+        <v>2.751695034206547</v>
       </c>
       <c r="J19">
-        <v>9.29139638032524</v>
+        <v>9.447929031376397</v>
       </c>
       <c r="K19">
-        <v>15.20201935280033</v>
+        <v>14.62511480172085</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.85128956402677</v>
       </c>
       <c r="M19">
-        <v>12.49210051412136</v>
+        <v>9.792214523868621</v>
       </c>
       <c r="N19">
-        <v>6.014007048535237</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.811005183573767</v>
+        <v>12.49315651669331</v>
       </c>
       <c r="P19">
-        <v>12.71981425416726</v>
+        <v>6.128521135192172</v>
       </c>
       <c r="Q19">
-        <v>15.33832992169128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.703583040951425</v>
+      </c>
+      <c r="R19">
+        <v>12.63666411882608</v>
+      </c>
+      <c r="S19">
+        <v>14.87970529611008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.03124031163563</v>
+        <v>14.66692640073532</v>
       </c>
       <c r="C20">
-        <v>9.193344424866757</v>
+        <v>9.203661796404615</v>
       </c>
       <c r="D20">
-        <v>8.553109671881117</v>
+        <v>8.555247115539473</v>
       </c>
       <c r="E20">
-        <v>8.771196457286303</v>
+        <v>8.581069494007238</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.61338012069364</v>
+        <v>24.28927591658113</v>
       </c>
       <c r="H20">
-        <v>1.983983921773233</v>
+        <v>1.93336146364459</v>
       </c>
       <c r="I20">
-        <v>2.728885092417981</v>
+        <v>2.670541118245038</v>
       </c>
       <c r="J20">
-        <v>9.549560993059346</v>
+        <v>9.579448036734265</v>
       </c>
       <c r="K20">
-        <v>15.81741086297121</v>
+        <v>15.12822474699416</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.18511399128718</v>
       </c>
       <c r="M20">
-        <v>12.70502785159979</v>
+        <v>10.25162922024639</v>
       </c>
       <c r="N20">
-        <v>7.053346216651319</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.8749689715194</v>
+        <v>12.69341167002814</v>
       </c>
       <c r="P20">
-        <v>12.68727374613339</v>
+        <v>7.174957120936046</v>
       </c>
       <c r="Q20">
-        <v>16.0213851741382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.74756855628906</v>
+      </c>
+      <c r="R20">
+        <v>12.5864481843864</v>
+      </c>
+      <c r="S20">
+        <v>15.45969458827071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.96978235513649</v>
+        <v>15.49958176389718</v>
       </c>
       <c r="C21">
-        <v>9.428197155066673</v>
+        <v>9.43686357494245</v>
       </c>
       <c r="D21">
-        <v>9.088774622500265</v>
+        <v>9.088736013940764</v>
       </c>
       <c r="E21">
-        <v>9.02355554431373</v>
+        <v>8.824061151273137</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.33052081833561</v>
+        <v>26.60184505535318</v>
       </c>
       <c r="H21">
-        <v>1.756820063066992</v>
+        <v>1.727760030426856</v>
       </c>
       <c r="I21">
-        <v>2.561530266886058</v>
+        <v>2.529552908078692</v>
       </c>
       <c r="J21">
-        <v>9.582309514939341</v>
+        <v>8.926978180076061</v>
       </c>
       <c r="K21">
-        <v>15.88699790347657</v>
+        <v>15.02336508103688</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.98567452427587</v>
       </c>
       <c r="M21">
-        <v>13.37218796044638</v>
+        <v>10.36631715245688</v>
       </c>
       <c r="N21">
-        <v>7.333223151504447</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.3902408696537</v>
+        <v>13.28503107974994</v>
       </c>
       <c r="P21">
-        <v>12.51881038037909</v>
+        <v>7.447236169028586</v>
       </c>
       <c r="Q21">
-        <v>16.21847515231536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.22737093533646</v>
+      </c>
+      <c r="R21">
+        <v>12.42702154242878</v>
+      </c>
+      <c r="S21">
+        <v>15.41354497921783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.54964398355641</v>
+        <v>16.01282182762412</v>
       </c>
       <c r="C22">
-        <v>9.582945610456257</v>
+        <v>9.586090189503933</v>
       </c>
       <c r="D22">
-        <v>9.424345987523544</v>
+        <v>9.42279069173709</v>
       </c>
       <c r="E22">
-        <v>9.140136530762092</v>
+        <v>8.939549908586839</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.76625902077684</v>
+        <v>28.205776383587</v>
       </c>
       <c r="H22">
-        <v>1.624702909914474</v>
+        <v>1.609364261472297</v>
       </c>
       <c r="I22">
-        <v>2.556449962874745</v>
+        <v>2.590984894953418</v>
       </c>
       <c r="J22">
-        <v>9.600477372577208</v>
+        <v>8.522892328661653</v>
       </c>
       <c r="K22">
-        <v>15.92327052335975</v>
+        <v>14.939019684597</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.8466732867511</v>
       </c>
       <c r="M22">
-        <v>13.79050061178313</v>
+        <v>10.43640675574595</v>
       </c>
       <c r="N22">
-        <v>7.460658315470295</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.6773011053926</v>
+        <v>13.65225112480919</v>
       </c>
       <c r="P22">
-        <v>12.40909482030154</v>
+        <v>7.569362494844896</v>
       </c>
       <c r="Q22">
-        <v>16.33711677017924</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.49096015360178</v>
+      </c>
+      <c r="R22">
+        <v>12.32507036583398</v>
+      </c>
+      <c r="S22">
+        <v>15.36208168619356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.25589890959219</v>
+        <v>15.7598805585609</v>
       </c>
       <c r="C23">
-        <v>9.489184038824797</v>
+        <v>9.50126142952692</v>
       </c>
       <c r="D23">
-        <v>9.246633255050375</v>
+        <v>9.245994603615523</v>
       </c>
       <c r="E23">
-        <v>9.083133889225147</v>
+        <v>8.880786015121299</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.56761278468987</v>
+        <v>27.18873333243981</v>
       </c>
       <c r="H23">
-        <v>1.69406889995075</v>
+        <v>1.670738864955108</v>
       </c>
       <c r="I23">
-        <v>2.498869165014251</v>
+        <v>2.541514891315435</v>
       </c>
       <c r="J23">
-        <v>9.596529306968836</v>
+        <v>8.800245228925732</v>
       </c>
       <c r="K23">
-        <v>15.91991114673009</v>
+        <v>15.01255768730515</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.93978159819116</v>
       </c>
       <c r="M23">
-        <v>13.56898726063859</v>
+        <v>10.42268924092932</v>
       </c>
       <c r="N23">
-        <v>7.39105111630671</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.52850221122655</v>
+        <v>13.46549074728306</v>
       </c>
       <c r="P23">
-        <v>12.46839726447082</v>
+        <v>7.50332646853831</v>
       </c>
       <c r="Q23">
-        <v>16.28813879416391</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.35723366530371</v>
+      </c>
+      <c r="R23">
+        <v>12.37942442076544</v>
+      </c>
+      <c r="S23">
+        <v>15.4249452655583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.06706757236668</v>
+        <v>14.70025477080071</v>
       </c>
       <c r="C24">
-        <v>9.146535162773702</v>
+        <v>9.150228453442738</v>
       </c>
       <c r="D24">
-        <v>8.544510429724189</v>
+        <v>8.546637124129033</v>
       </c>
       <c r="E24">
-        <v>8.854446987160792</v>
+        <v>8.660379931399213</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.77116297438364</v>
+        <v>24.42653075175333</v>
       </c>
       <c r="H24">
-        <v>1.964236954186561</v>
+        <v>1.913507649476958</v>
       </c>
       <c r="I24">
-        <v>2.708571373353109</v>
+        <v>2.646676816297716</v>
       </c>
       <c r="J24">
-        <v>9.577890140032959</v>
+        <v>9.610876909616106</v>
       </c>
       <c r="K24">
-        <v>15.88908917478751</v>
+        <v>15.19410499137166</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.23508715164112</v>
       </c>
       <c r="M24">
-        <v>12.69475589882331</v>
+        <v>10.30193905880924</v>
       </c>
       <c r="N24">
-        <v>7.125089113329828</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.94148163636302</v>
+        <v>12.68370921266846</v>
       </c>
       <c r="P24">
-        <v>12.69389182002171</v>
+        <v>7.247349214350131</v>
       </c>
       <c r="Q24">
-        <v>16.09016395623947</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.81346788787423</v>
+      </c>
+      <c r="R24">
+        <v>12.59025729209273</v>
+      </c>
+      <c r="S24">
+        <v>15.52554640108549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.66545213681057</v>
+        <v>13.3833141926262</v>
       </c>
       <c r="C25">
-        <v>8.7638644451101</v>
+        <v>8.658132384918513</v>
       </c>
       <c r="D25">
-        <v>7.724426282424606</v>
+        <v>7.727973242721009</v>
       </c>
       <c r="E25">
-        <v>8.598005783196422</v>
+        <v>8.435416445078465</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.93930693003909</v>
+        <v>23.5926303436656</v>
       </c>
       <c r="H25">
-        <v>2.269063192634746</v>
+        <v>2.197149234045808</v>
       </c>
       <c r="I25">
-        <v>2.954200194992709</v>
+        <v>2.865264621644879</v>
       </c>
       <c r="J25">
-        <v>9.570404838383604</v>
+        <v>9.662722012847853</v>
       </c>
       <c r="K25">
-        <v>15.87368398279286</v>
+        <v>15.25647703335634</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.46161309203381</v>
       </c>
       <c r="M25">
-        <v>11.67740333496388</v>
+        <v>10.10622433076926</v>
       </c>
       <c r="N25">
-        <v>6.82774286724027</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.27264735957815</v>
+        <v>11.68161269549357</v>
       </c>
       <c r="P25">
-        <v>12.94221812532676</v>
+        <v>6.952760560966956</v>
       </c>
       <c r="Q25">
-        <v>15.9011340195507</v>
+        <v>10.16319867457788</v>
+      </c>
+      <c r="R25">
+        <v>12.82233159435696</v>
+      </c>
+      <c r="S25">
+        <v>15.42162010124103</v>
       </c>
     </row>
   </sheetData>
